--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล) ssk.xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล) ssk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45896D6-8300-4718-B952-AA1A69E7238D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B59956-BD85-415B-80A4-31C1B3BA3DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="216">
   <si>
     <t>ID No.</t>
   </si>
@@ -74,79 +74,616 @@
     <t>Calibration Date</t>
   </si>
   <si>
-    <t>H-103N</t>
-  </si>
-  <si>
-    <t>CENTRIFUGE</t>
-  </si>
-  <si>
     <t>REFRIGERATOR</t>
   </si>
   <si>
-    <t>CEN-LAB-01</t>
-  </si>
-  <si>
-    <t>CF25062763</t>
-  </si>
-  <si>
-    <t>CEN-LAB-02</t>
-  </si>
-  <si>
-    <t>CF25062764</t>
-  </si>
-  <si>
     <t>WATER BATH</t>
   </si>
   <si>
-    <t>THERMO SCIENTIFIC</t>
-  </si>
-  <si>
-    <t>TSGP2S</t>
-  </si>
-  <si>
-    <t>300304147</t>
-  </si>
-  <si>
-    <t>WTB-LAB-01</t>
-  </si>
-  <si>
-    <t>WB25062765</t>
-  </si>
-  <si>
-    <t>SVC-400SAD</t>
-  </si>
-  <si>
-    <t>SVC-400201-0907-00266</t>
-  </si>
-  <si>
-    <t>BBR-LAB-01</t>
-  </si>
-  <si>
-    <t>CH25062766</t>
-  </si>
-  <si>
-    <t>SPA-0253D41A</t>
-  </si>
-  <si>
-    <t>SPA0253-190602819</t>
-  </si>
-  <si>
-    <t>BBR-LAB-02</t>
-  </si>
-  <si>
-    <t>CH25062767</t>
-  </si>
-  <si>
-    <t>SHARP</t>
-  </si>
-  <si>
-    <t>SJ-D51H-GY</t>
-  </si>
-  <si>
-    <t>T01600</t>
-  </si>
-  <si>
-    <t>CH25062768</t>
+    <t>BLOOD BANK CENTRIFUGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRIFUGE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFRIGERATOR </t>
+  </si>
+  <si>
+    <t>FREEZER FOR FFP</t>
+  </si>
+  <si>
+    <t>Thermometer digital  No.1</t>
+  </si>
+  <si>
+    <t>Thermometer digital  No.2</t>
+  </si>
+  <si>
+    <t>Thermometer digital  No.3</t>
+  </si>
+  <si>
+    <t>Thermometer digital  No.4</t>
+  </si>
+  <si>
+    <t>Autopipette 5 µl</t>
+  </si>
+  <si>
+    <t>Piston pipette ;  Single Channel</t>
+  </si>
+  <si>
+    <t>Autopipette 100 µl</t>
+  </si>
+  <si>
+    <t>Autopipette 200 µl</t>
+  </si>
+  <si>
+    <t>Autopipette 1000 µl</t>
+  </si>
+  <si>
+    <t>Autopipette 50 µl</t>
+  </si>
+  <si>
+    <t>Thermometer digital  No.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hygrometer No.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hygrometer No.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TIMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCUBATOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermometer digital  No. 6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermometer digital  No. 7  </t>
+  </si>
+  <si>
+    <t>AUTOPIPETTE  10  ul</t>
+  </si>
+  <si>
+    <t>AUTOPIPETTE  20  ul</t>
+  </si>
+  <si>
+    <t>AUTOPIPETTE  25  ul</t>
+  </si>
+  <si>
+    <t>AUTOPIPETTE  50  ul</t>
+  </si>
+  <si>
+    <t>AUTOPIPETTE  1000 ul</t>
+  </si>
+  <si>
+    <t>FREEZER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRIFUGE  </t>
+  </si>
+  <si>
+    <t>ROTATOR</t>
+  </si>
+  <si>
+    <t>SLIDE WARMER</t>
+  </si>
+  <si>
+    <t>HEMATOCRIT  CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>CENTRIFUGE &amp; DRY BATH INCUBATOR</t>
+  </si>
+  <si>
+    <t>AUTOPIPETTE  10-100 ul</t>
+  </si>
+  <si>
+    <t>AUTOPIPETTE  50 ul</t>
+  </si>
+  <si>
+    <t>BIO-RAD</t>
+  </si>
+  <si>
+    <t>DIACENT-12</t>
+  </si>
+  <si>
+    <t>HUMAN</t>
+  </si>
+  <si>
+    <t>HUMAX 4K</t>
+  </si>
+  <si>
+    <t>02-7610</t>
+  </si>
+  <si>
+    <t>SDC-1000AY</t>
+  </si>
+  <si>
+    <t>SDC1000103A-0609-02501</t>
+  </si>
+  <si>
+    <t>PANASONIC</t>
+  </si>
+  <si>
+    <t>MBR-305GR</t>
+  </si>
+  <si>
+    <t>BRANDT</t>
+  </si>
+  <si>
+    <t>U30AAWHZZ</t>
+  </si>
+  <si>
+    <t>042310567</t>
+  </si>
+  <si>
+    <t>DT-5</t>
+  </si>
+  <si>
+    <t>DT-1</t>
+  </si>
+  <si>
+    <t>Erba</t>
+  </si>
+  <si>
+    <t>BIOHIT 25 ul</t>
+  </si>
+  <si>
+    <t>HU75604</t>
+  </si>
+  <si>
+    <t>BIOHIT</t>
+  </si>
+  <si>
+    <t>PROLINE 100 ul</t>
+  </si>
+  <si>
+    <t>PROLINE 200 ul</t>
+  </si>
+  <si>
+    <t>BIOHIT 50 ul</t>
+  </si>
+  <si>
+    <t>DT-3</t>
+  </si>
+  <si>
+    <t>140576DT3114</t>
+  </si>
+  <si>
+    <t>140576DT3112</t>
+  </si>
+  <si>
+    <t>sysmex</t>
+  </si>
+  <si>
+    <t>iamclock</t>
+  </si>
+  <si>
+    <t>SCILOGEX</t>
+  </si>
+  <si>
+    <t>5 ul</t>
+  </si>
+  <si>
+    <t>MA0011444</t>
+  </si>
+  <si>
+    <t>10 ul</t>
+  </si>
+  <si>
+    <t>CQ01516</t>
+  </si>
+  <si>
+    <t>20 ul</t>
+  </si>
+  <si>
+    <t>YM4D065247</t>
+  </si>
+  <si>
+    <t>100 ul</t>
+  </si>
+  <si>
+    <t>MA0011509</t>
+  </si>
+  <si>
+    <t>SDC1000-150701369</t>
+  </si>
+  <si>
+    <t>TIMER-5</t>
+  </si>
+  <si>
+    <t>H-19α</t>
+  </si>
+  <si>
+    <t>DLAB</t>
+  </si>
+  <si>
+    <t>YM192AH0037115</t>
+  </si>
+  <si>
+    <t>YM20AAL0018991</t>
+  </si>
+  <si>
+    <t>25 ul</t>
+  </si>
+  <si>
+    <t>YM198AH0067626</t>
+  </si>
+  <si>
+    <t>50 ul</t>
+  </si>
+  <si>
+    <t>YM204AH0100974</t>
+  </si>
+  <si>
+    <t>YM192AH0038026</t>
+  </si>
+  <si>
+    <t>SEVERIN</t>
+  </si>
+  <si>
+    <t>KS 9859</t>
+  </si>
+  <si>
+    <t>7TECH</t>
+  </si>
+  <si>
+    <t>ZTH-CDCC06</t>
+  </si>
+  <si>
+    <t>DIGISYSTEM</t>
+  </si>
+  <si>
+    <t>DSR-2800D-N</t>
+  </si>
+  <si>
+    <t>RD2N-22070549</t>
+  </si>
+  <si>
+    <t>LabTech</t>
+  </si>
+  <si>
+    <t>LWB-106D</t>
+  </si>
+  <si>
+    <t>CHANGSHNIN SCIENCE</t>
+  </si>
+  <si>
+    <t>C-SL</t>
+  </si>
+  <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t>ZTH-CDMH24</t>
+  </si>
+  <si>
+    <t>DRAGONLAB</t>
+  </si>
+  <si>
+    <t>1000 ul</t>
+  </si>
+  <si>
+    <t>YE222AX0065612</t>
+  </si>
+  <si>
+    <t>YE222AX0065617</t>
+  </si>
+  <si>
+    <t>ORTHO</t>
+  </si>
+  <si>
+    <t>WORKSTATION</t>
+  </si>
+  <si>
+    <t>sartorius</t>
+  </si>
+  <si>
+    <t>Proline Plus 10-100 ul</t>
+  </si>
+  <si>
+    <t>Proline Plus 50 ul</t>
+  </si>
+  <si>
+    <t>Z-COOL</t>
+  </si>
+  <si>
+    <t>ZDD-1DU</t>
+  </si>
+  <si>
+    <t>SPA0403-220700473</t>
+  </si>
+  <si>
+    <t>SHUKE</t>
+  </si>
+  <si>
+    <t>TD-4B</t>
+  </si>
+  <si>
+    <t>SARTORIUS</t>
+  </si>
+  <si>
+    <t>PROLINE 10 ul</t>
+  </si>
+  <si>
+    <t>PROLINE 50 ul</t>
+  </si>
+  <si>
+    <t>PROLINE 1000 ul</t>
+  </si>
+  <si>
+    <t>LAB-STH-013</t>
+  </si>
+  <si>
+    <t>LAB-STH-014</t>
+  </si>
+  <si>
+    <t>LAB-STH-016</t>
+  </si>
+  <si>
+    <t>LAB-STH-019</t>
+  </si>
+  <si>
+    <t>LAB-STH-020</t>
+  </si>
+  <si>
+    <t>LAB-STH-021</t>
+  </si>
+  <si>
+    <t>LAB-STH-022</t>
+  </si>
+  <si>
+    <t>LAB-STH-023</t>
+  </si>
+  <si>
+    <t>LAB-STH-024</t>
+  </si>
+  <si>
+    <t>LAB-STH-025</t>
+  </si>
+  <si>
+    <t>LAB-STH-027</t>
+  </si>
+  <si>
+    <t>LAB-STH-028</t>
+  </si>
+  <si>
+    <t>LAB-STH-031</t>
+  </si>
+  <si>
+    <t>LAB-STH-032</t>
+  </si>
+  <si>
+    <t>LAB-STH-033</t>
+  </si>
+  <si>
+    <t>LAB-STH-038</t>
+  </si>
+  <si>
+    <t>LAB-STH-050</t>
+  </si>
+  <si>
+    <t>LAB-STH-051</t>
+  </si>
+  <si>
+    <t>LAB-STH-052</t>
+  </si>
+  <si>
+    <t>LAB-STH-053</t>
+  </si>
+  <si>
+    <t>LAB-STH-054</t>
+  </si>
+  <si>
+    <t>LAB-STH-055</t>
+  </si>
+  <si>
+    <t>LAB-STH-071</t>
+  </si>
+  <si>
+    <t>LAB-STH-058</t>
+  </si>
+  <si>
+    <t>LAB-STH-059</t>
+  </si>
+  <si>
+    <t>LAB-STH-060</t>
+  </si>
+  <si>
+    <t>LAB-STH-061</t>
+  </si>
+  <si>
+    <t>LAB-STH-062</t>
+  </si>
+  <si>
+    <t>LAB-STH-063</t>
+  </si>
+  <si>
+    <t>LAB-STH-065</t>
+  </si>
+  <si>
+    <t>LAB-STH-066</t>
+  </si>
+  <si>
+    <t>LAB-STH-068</t>
+  </si>
+  <si>
+    <t>LAB-STH-069</t>
+  </si>
+  <si>
+    <t>LAB-STH-070</t>
+  </si>
+  <si>
+    <t>LAB-STH-072</t>
+  </si>
+  <si>
+    <t>LAB-STH-074</t>
+  </si>
+  <si>
+    <t>LAB-STH-075</t>
+  </si>
+  <si>
+    <t>LAB-STH-076</t>
+  </si>
+  <si>
+    <t>LAB-STH-077</t>
+  </si>
+  <si>
+    <t>LAB-STH-078</t>
+  </si>
+  <si>
+    <t>LAB-STH-079</t>
+  </si>
+  <si>
+    <t>LAB-STH-081</t>
+  </si>
+  <si>
+    <t>LAB-STH-082</t>
+  </si>
+  <si>
+    <t>LAB-STH-083</t>
+  </si>
+  <si>
+    <t>LAB-STH-084</t>
+  </si>
+  <si>
+    <t>LAB-STH-085</t>
+  </si>
+  <si>
+    <t>LAB-STH-086</t>
+  </si>
+  <si>
+    <t>LAB-STH-087</t>
+  </si>
+  <si>
+    <t>LAB-STH-088</t>
+  </si>
+  <si>
+    <t>C-STH-007</t>
+  </si>
+  <si>
+    <t>C-STH-009</t>
+  </si>
+  <si>
+    <t>C-STH-010</t>
+  </si>
+  <si>
+    <t>C-STH-011</t>
+  </si>
+  <si>
+    <t>LAB-STH-091</t>
+  </si>
+  <si>
+    <t>LAB-STH-096</t>
+  </si>
+  <si>
+    <t>LAB-STH-092</t>
+  </si>
+  <si>
+    <t>LAB-STH-093</t>
+  </si>
+  <si>
+    <t>LAB-STH-094</t>
+  </si>
+  <si>
+    <t>เสีย รอซ่อม</t>
+  </si>
+  <si>
+    <t>CF25062849</t>
+  </si>
+  <si>
+    <t>ยกเลิก</t>
+  </si>
+  <si>
+    <t>CH25062851</t>
+  </si>
+  <si>
+    <t>CH25062852</t>
+  </si>
+  <si>
+    <t>Pending Equipment</t>
+  </si>
+  <si>
+    <t>PP25063426</t>
+  </si>
+  <si>
+    <t>25LABSTH06250001</t>
+  </si>
+  <si>
+    <t>25LABSTH06250003</t>
+  </si>
+  <si>
+    <t>25LABSTH06250002</t>
+  </si>
+  <si>
+    <t>25LABSTH06250004</t>
+  </si>
+  <si>
+    <t>CF25062853</t>
+  </si>
+  <si>
+    <t>PP25063427</t>
+  </si>
+  <si>
+    <t>PP25063428</t>
+  </si>
+  <si>
+    <t>PP25063429</t>
+  </si>
+  <si>
+    <t>PP25063430</t>
+  </si>
+  <si>
+    <t>CH25062854</t>
+  </si>
+  <si>
+    <t>25LABSTH06250005</t>
+  </si>
+  <si>
+    <t>CF25062855</t>
+  </si>
+  <si>
+    <t>PP25063431</t>
+  </si>
+  <si>
+    <t>CH25062856</t>
+  </si>
+  <si>
+    <t>CF25062857</t>
+  </si>
+  <si>
+    <t>CF25062858</t>
+  </si>
+  <si>
+    <t>WB25062859</t>
+  </si>
+  <si>
+    <t>DB25062860</t>
+  </si>
+  <si>
+    <t>CF25062861</t>
+  </si>
+  <si>
+    <t>CF25062862,DB25062848</t>
+  </si>
+  <si>
+    <t>CH25062850</t>
+  </si>
+  <si>
+    <t>CF25062872</t>
+  </si>
+  <si>
+    <t>PP25063432</t>
+  </si>
+  <si>
+    <t>PP25063433</t>
+  </si>
+  <si>
+    <t>PP25063434</t>
+  </si>
+  <si>
+    <t>LABORATORY OF NATIONAL HEALTHCARE SYSTEMS CO.,LTD BRANCH SAMITIVEJ THONBURI HOSPITAL</t>
   </si>
 </sst>
 </file>
@@ -583,7 +1120,7 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -627,667 +1164,1469 @@
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1">
-        <v>116338</v>
+        <v>2001316</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45813</v>
+        <v>125</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>129593</v>
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F3" s="2">
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45814</v>
+        <v>127</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="6"/>
+        <v>185</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="32.4" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="F5" s="2">
-        <v>45813</v>
+        <v>45819</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="32.4" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="D6" s="1">
+        <v>13110067</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="F6" s="2">
-        <v>45813</v>
+        <v>45819</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="6"/>
+        <v>187</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45814</v>
+        <v>130</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="6"/>
+        <v>185</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="6"/>
+      <c r="E8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="6"/>
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="6"/>
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="6"/>
+      <c r="E12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="6"/>
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45838</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="6"/>
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10127714</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="6"/>
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10056010</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="6"/>
+      <c r="E16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="6"/>
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5027344</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="6"/>
+      <c r="E18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="6"/>
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="6"/>
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="6"/>
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45820</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="6"/>
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45820</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="6"/>
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45820</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="6"/>
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45820</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="6"/>
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>147664</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45820</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="6"/>
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45838</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="6"/>
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45838</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="6"/>
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45838</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="6"/>
+      <c r="E29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="6"/>
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45838</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="6"/>
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="6"/>
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45819</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="6"/>
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="6"/>
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="6"/>
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45820</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="6"/>
+      <c r="A36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="1">
+        <v>152035</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45820</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="6"/>
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="6"/>
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="6"/>
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="6"/>
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="6"/>
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45838</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="6"/>
+      <c r="E42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="6"/>
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="1">
+        <v>25851</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45819</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="6"/>
+      <c r="A44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="1">
+        <v>6510003001</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" s="2">
+        <v>45819</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="6"/>
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45820</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="6"/>
+      <c r="A46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="1">
+        <v>20180508157</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="2">
+        <v>45820</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="6"/>
+      <c r="A47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="1">
+        <v>161024</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45819</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="6"/>
+      <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6602001002</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" s="2">
+        <v>45820</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="6"/>
+      <c r="A49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="6"/>
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="6"/>
+      <c r="A51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="1">
+        <v>61000428</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45819</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="6"/>
+      <c r="A52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="1">
+        <v>14514006</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="6"/>
+      <c r="E53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="6"/>
+      <c r="A54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="1">
+        <v>14534034</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="6"/>
+      <c r="A55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45820</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="6"/>
+      <c r="A56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="1">
+        <v>24102411</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45820</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="6"/>
+      <c r="A57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4544402345</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45838</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="6"/>
+      <c r="A58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4544202543</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45838</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="6"/>
+      <c r="A59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="1">
+        <v>4544704145</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45838</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="32.4" customHeight="1">
       <c r="A60" s="1"/>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล) ssk.xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล) ssk.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FD711E-54FC-4B5F-AB05-5412F0F3EFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE647420-E89E-4E14-9A56-E2F6ADE53A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$106</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ใบขอรับบริการสอบเทียบ!$A$1:$H$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
   <si>
     <t>ID No.</t>
   </si>
@@ -53,9 +53,6 @@
     <t>H-11NC</t>
   </si>
   <si>
-    <t>SANDEN INTERCOOL</t>
-  </si>
-  <si>
     <t>Equipment</t>
   </si>
   <si>
@@ -77,310 +74,325 @@
     <t>REFRIGERATOR</t>
   </si>
   <si>
-    <t>Piston pipette ;  Single Channel</t>
-  </si>
-  <si>
     <t>FREEZER</t>
   </si>
   <si>
     <t>ROTATOR</t>
   </si>
   <si>
-    <t>SDC-1000AY</t>
-  </si>
-  <si>
-    <t>DT-5</t>
-  </si>
-  <si>
     <t>SCILOGEX</t>
   </si>
   <si>
     <t>H-19α</t>
   </si>
   <si>
-    <t>DLAB</t>
-  </si>
-  <si>
-    <t>Pending Equipment</t>
-  </si>
-  <si>
-    <t>Microtech</t>
-  </si>
-  <si>
-    <t>DFH-1</t>
-  </si>
-  <si>
-    <t>DM1424</t>
-  </si>
-  <si>
-    <t>LM5G001029</t>
-  </si>
-  <si>
-    <t>VISION</t>
-  </si>
-  <si>
-    <t>VTX3000L</t>
-  </si>
-  <si>
-    <t>PCL HOLDING</t>
-  </si>
-  <si>
-    <t>DC-10</t>
-  </si>
-  <si>
-    <t>AA201508_42</t>
-  </si>
-  <si>
     <t>OLYMPUS</t>
   </si>
   <si>
     <t>CX31RBSFA</t>
   </si>
   <si>
-    <t>4L42169</t>
-  </si>
-  <si>
-    <t>SDC1000S-151000308</t>
-  </si>
-  <si>
-    <t>SNH-0163D41C</t>
-  </si>
-  <si>
-    <t>SNH0163-151205290</t>
-  </si>
-  <si>
-    <t>SK-O180-Pro</t>
-  </si>
-  <si>
-    <t>SA187AB0000387</t>
-  </si>
-  <si>
-    <t>ALLSHENG</t>
-  </si>
-  <si>
-    <t>MK2000-1</t>
-  </si>
-  <si>
-    <t>101-16315-23100007</t>
-  </si>
-  <si>
     <t>MEDICOOL</t>
   </si>
   <si>
-    <t>MDC330</t>
-  </si>
-  <si>
-    <t>MDC330-202408050</t>
-  </si>
-  <si>
-    <t>eppendorf</t>
-  </si>
-  <si>
-    <t>Research plus 20-200 ul</t>
-  </si>
-  <si>
-    <t>P17207E</t>
-  </si>
-  <si>
-    <t>Research plus 100-1000 ul</t>
-  </si>
-  <si>
-    <t>Q21081E</t>
-  </si>
-  <si>
-    <t>HBG</t>
-  </si>
-  <si>
-    <t>A 1 ml</t>
-  </si>
-  <si>
-    <t>A 3 ml</t>
-  </si>
-  <si>
-    <t>A 5 ml</t>
-  </si>
-  <si>
-    <t>DIGICON</t>
-  </si>
-  <si>
-    <t>TH-02</t>
-  </si>
-  <si>
-    <t>Mi</t>
-  </si>
-  <si>
-    <t>LYWSD03MMC</t>
-  </si>
-  <si>
-    <t>Timer-5</t>
-  </si>
-  <si>
-    <t>Sysmex</t>
-  </si>
-  <si>
-    <t>Fume Hood</t>
-  </si>
-  <si>
-    <t>HAEMATOCRIT CENTRIFUGE</t>
-  </si>
-  <si>
     <t>CENTRIFUGE</t>
   </si>
   <si>
     <t>VORTEX MIXER</t>
   </si>
   <si>
-    <t>DIGITAL COUNT</t>
-  </si>
-  <si>
-    <t>MICROSCOPIC</t>
-  </si>
-  <si>
-    <t>DRY BATH</t>
-  </si>
-  <si>
-    <t>Volumetric pipette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital thermometer </t>
-  </si>
-  <si>
-    <t>Digital Thermo-Hygrometer</t>
-  </si>
-  <si>
-    <t>Timer 1</t>
-  </si>
-  <si>
-    <t>Timer 2</t>
-  </si>
-  <si>
-    <t>LAB-IMI-029</t>
-  </si>
-  <si>
-    <t>LAB-IMI-001</t>
-  </si>
-  <si>
-    <t>LAB-IMI-002</t>
-  </si>
-  <si>
-    <t>LAB-IMI-003</t>
-  </si>
-  <si>
-    <t>LAB-IMI-004</t>
-  </si>
-  <si>
-    <t>LAB-IMI-005</t>
-  </si>
-  <si>
-    <t>LAB-IMI-011</t>
-  </si>
-  <si>
-    <t>LAB-IMI-017</t>
-  </si>
-  <si>
-    <t>LAB-IMI-018</t>
-  </si>
-  <si>
-    <t>LAB-IMI-027</t>
-  </si>
-  <si>
-    <t>LAB-IMI-030</t>
-  </si>
-  <si>
-    <t>LAB-IMI-031</t>
-  </si>
-  <si>
-    <t>LAB-IMI-006</t>
-  </si>
-  <si>
-    <t>LAB-IMI-012</t>
-  </si>
-  <si>
-    <t>LAB-IMI-013</t>
-  </si>
-  <si>
-    <t>LAB-IMI-015</t>
-  </si>
-  <si>
-    <t>LAB-IMI-016</t>
-  </si>
-  <si>
-    <t>LAB-IMI-019</t>
-  </si>
-  <si>
-    <t>LAB-IMI-020</t>
-  </si>
-  <si>
-    <t>LAB-IMI-023</t>
-  </si>
-  <si>
-    <t>LAB-IMI-021</t>
-  </si>
-  <si>
-    <t>LAB-IMI-022</t>
-  </si>
-  <si>
-    <t>LAB-IMI-024</t>
-  </si>
-  <si>
-    <t>LAB-IMI-025</t>
-  </si>
-  <si>
-    <t>HOOD-20250528697</t>
-  </si>
-  <si>
-    <t>CF25052598</t>
-  </si>
-  <si>
-    <t>CF25052599</t>
-  </si>
-  <si>
-    <t>CF25052600</t>
-  </si>
-  <si>
-    <t>25LABIMIPM05250004</t>
-  </si>
-  <si>
-    <t>25LABIMIPM05250005</t>
-  </si>
-  <si>
-    <t>25LABIMIPM05250006</t>
-  </si>
-  <si>
-    <t>CH25052601</t>
-  </si>
-  <si>
-    <t>CH25052602</t>
-  </si>
-  <si>
-    <t>CF25052603</t>
-  </si>
-  <si>
-    <t>DB25052604</t>
-  </si>
-  <si>
-    <t>CH25052605</t>
-  </si>
-  <si>
-    <t>PP25063121</t>
-  </si>
-  <si>
-    <t>PP25063122</t>
-  </si>
-  <si>
-    <t>25-102999</t>
-  </si>
-  <si>
-    <t>25-103000</t>
-  </si>
-  <si>
-    <t>25-103001</t>
-  </si>
-  <si>
-    <t>TH25063124</t>
-  </si>
-  <si>
-    <t>TH25063123</t>
+    <t xml:space="preserve">CENTRIFUGE </t>
+  </si>
+  <si>
+    <t>LAB-BCT-010</t>
+  </si>
+  <si>
+    <t>CF25052555</t>
+  </si>
+  <si>
+    <t>LAB-BCT-013</t>
+  </si>
+  <si>
+    <t>CF25052556</t>
+  </si>
+  <si>
+    <t>THERMO SCIENTIFIC</t>
+  </si>
+  <si>
+    <t>PLF276</t>
+  </si>
+  <si>
+    <t>27600314040067</t>
+  </si>
+  <si>
+    <t>LAB-BCT-018</t>
+  </si>
+  <si>
+    <t>CH25052557</t>
+  </si>
+  <si>
+    <t>PLR1006</t>
+  </si>
+  <si>
+    <t>10060314040057</t>
+  </si>
+  <si>
+    <t>LAB-BCT-017</t>
+  </si>
+  <si>
+    <t>CH25052558</t>
+  </si>
+  <si>
+    <t>MDC090</t>
+  </si>
+  <si>
+    <t>MDC090-202311031</t>
+  </si>
+  <si>
+    <t>LAB-BCT-067</t>
+  </si>
+  <si>
+    <t>CH25052559</t>
+  </si>
+  <si>
+    <t>PANASONIC</t>
+  </si>
+  <si>
+    <t>MBR-305GR-PE</t>
+  </si>
+  <si>
+    <t>14060058</t>
+  </si>
+  <si>
+    <t>LAB-BCT-016</t>
+  </si>
+  <si>
+    <t>CH25052560</t>
+  </si>
+  <si>
+    <t>BIO RAD</t>
+  </si>
+  <si>
+    <t>DIACENT - 12</t>
+  </si>
+  <si>
+    <t>2001729</t>
+  </si>
+  <si>
+    <t>LAB-BCT-021</t>
+  </si>
+  <si>
+    <t>CF25052561</t>
+  </si>
+  <si>
+    <t>KOMABIOTECH</t>
+  </si>
+  <si>
+    <t>KE011</t>
+  </si>
+  <si>
+    <t>19141-19</t>
+  </si>
+  <si>
+    <t>LAB-BCT-026</t>
+  </si>
+  <si>
+    <t>CF25052562</t>
+  </si>
+  <si>
+    <t>WATER BATH</t>
+  </si>
+  <si>
+    <t>MEMMERT</t>
+  </si>
+  <si>
+    <t>WNB 14</t>
+  </si>
+  <si>
+    <t>L414.0476</t>
+  </si>
+  <si>
+    <t>LAB-BCT-014</t>
+  </si>
+  <si>
+    <t>WB25052563</t>
+  </si>
+  <si>
+    <t>ORTHO</t>
+  </si>
+  <si>
+    <t>WORKSTATION</t>
+  </si>
+  <si>
+    <t>C-BCT-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICROSCOPE </t>
+  </si>
+  <si>
+    <t>SYSMEX</t>
+  </si>
+  <si>
+    <t>CA-50</t>
+  </si>
+  <si>
+    <t>A1207</t>
+  </si>
+  <si>
+    <t>C-BCT-012</t>
+  </si>
+  <si>
+    <t>PM ONLY</t>
+  </si>
+  <si>
+    <t>AUTOMATE SLIDE STAINER</t>
+  </si>
+  <si>
+    <t>WELLGATE</t>
+  </si>
+  <si>
+    <t>WG-901</t>
+  </si>
+  <si>
+    <t>C-BCT-025</t>
+  </si>
+  <si>
+    <t>SLIDE WARMER</t>
+  </si>
+  <si>
+    <t>CHANG SHIN SCIENTIFIC</t>
+  </si>
+  <si>
+    <t>C-SL</t>
+  </si>
+  <si>
+    <t>LAB-BCT-060</t>
+  </si>
+  <si>
+    <t>DB25052566</t>
+  </si>
+  <si>
+    <t>HEMATOCRIT CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>UGAIYA</t>
+  </si>
+  <si>
+    <t>H1650-W</t>
+  </si>
+  <si>
+    <t>W1670002301001</t>
+  </si>
+  <si>
+    <t>LAB-BCT-066</t>
+  </si>
+  <si>
+    <t>CF25052567</t>
+  </si>
+  <si>
+    <t>PEN REFRACTOMETER</t>
+  </si>
+  <si>
+    <t>A202412</t>
+  </si>
+  <si>
+    <t>LAB-BCT-001</t>
+  </si>
+  <si>
+    <t>2L09565</t>
+  </si>
+  <si>
+    <t>LAB-BCT-002</t>
+  </si>
+  <si>
+    <t>4A40059 201401</t>
+  </si>
+  <si>
+    <t>LAB-BCT-009</t>
+  </si>
+  <si>
+    <t>LMS</t>
+  </si>
+  <si>
+    <t>VTX-3000L</t>
+  </si>
+  <si>
+    <t>LAB-BCT-011</t>
+  </si>
+  <si>
+    <t>ANALOG TUBE ROLLER</t>
+  </si>
+  <si>
+    <t>MX-T6-S</t>
+  </si>
+  <si>
+    <t>VF3D001939</t>
+  </si>
+  <si>
+    <t>LAB-BCT-024</t>
+  </si>
+  <si>
+    <t>BACTI-CINERATOR STERILIZER</t>
+  </si>
+  <si>
+    <t>LAB READER</t>
+  </si>
+  <si>
+    <t>HM-3000A</t>
+  </si>
+  <si>
+    <t>LL-HMA-100</t>
+  </si>
+  <si>
+    <t>LAB-BCT-025</t>
+  </si>
+  <si>
+    <t>TUBE SEALER</t>
+  </si>
+  <si>
+    <t>TERUMO PENPOL</t>
+  </si>
+  <si>
+    <t>XS1010</t>
+  </si>
+  <si>
+    <t>LAB-BCT-029</t>
+  </si>
+  <si>
+    <t>TOSHIBA</t>
+  </si>
+  <si>
+    <t>GR-A906ZI</t>
+  </si>
+  <si>
+    <t>1161003000059</t>
+  </si>
+  <si>
+    <t>LAB-BCT-057</t>
+  </si>
+  <si>
+    <t>ยกเลิก (ไม่ใช้งาน)</t>
+  </si>
+  <si>
+    <t>MELING</t>
+  </si>
+  <si>
+    <t>XC-268L</t>
+  </si>
+  <si>
+    <t>LAB-BCT-090</t>
+  </si>
+  <si>
+    <t>CH25052569</t>
+  </si>
+  <si>
+    <t>DB25052565</t>
+  </si>
+  <si>
+    <t>CF25052564</t>
+  </si>
+  <si>
+    <t>INCUBATOR</t>
   </si>
 </sst>
 </file>
@@ -508,7 +520,18 @@
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -814,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -828,608 +851,608 @@
     <col min="4" max="4" width="29.21875" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="37.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.109375" style="7" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="10" customFormat="1" ht="33.6" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>145758</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="2">
+        <v>45803</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45805</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>146985</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="2">
+        <v>45803</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45806</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1">
-        <v>147939</v>
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
-        <v>45805</v>
+        <v>45803</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="32.4" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>147673</v>
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2">
-        <v>45805</v>
+        <v>45803</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="32.4" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1503200424</v>
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2">
-        <v>45806</v>
+        <v>45803</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2">
-        <v>45806</v>
+        <v>45803</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2">
-        <v>45806</v>
+        <v>45803</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2">
-        <v>45805</v>
+        <v>45803</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2">
-        <v>45806</v>
+        <v>45803</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
+      </c>
+      <c r="D11" s="1">
+        <v>61000429</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2">
-        <v>45805</v>
+        <v>45803</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="D12" s="1">
+        <v>61000429</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2">
-        <v>45806</v>
+        <v>45803</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F13" s="2">
-        <v>45805</v>
+        <v>45803</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1807901130</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F14" s="2">
-        <v>45826</v>
+        <v>45803</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="32.4" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
+      </c>
+      <c r="D15" s="1">
+        <v>161024</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2">
-        <v>45826</v>
+        <v>45803</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2">
-        <v>45818</v>
+        <v>45803</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="2">
-        <v>45818</v>
+        <v>45803</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="32.4" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="2">
-        <v>45818</v>
+        <v>45803</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45803</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="32.4" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1311010946</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45803</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="32.4" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="1">
-        <v>345032556</v>
+        <v>95</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F21" s="2">
-        <v>45831</v>
+        <v>45803</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="32.4" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45803</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="32.4" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>2</v>
+        <v>105</v>
+      </c>
+      <c r="D23" s="1">
+        <v>14022940</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F23" s="2">
-        <v>45831</v>
+        <v>45803</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="32.4" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="1" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="32.4" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>2</v>
+        <v>113</v>
+      </c>
+      <c r="D25" s="1">
+        <v>230302511</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45803</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -1440,7 +1463,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="32.4" customHeight="1">
@@ -1450,7 +1473,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="32.4" customHeight="1">
@@ -1460,7 +1483,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="32.4" customHeight="1">
@@ -1470,7 +1493,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="32.4" customHeight="1">
@@ -1480,7 +1503,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="32.4" customHeight="1">
@@ -1490,7 +1513,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="32.4" customHeight="1">
@@ -1500,7 +1523,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="32.4" customHeight="1">
@@ -1510,7 +1533,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" ht="32.4" customHeight="1">
@@ -1520,7 +1543,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" ht="32.4" customHeight="1">
@@ -1530,7 +1553,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="32.4" customHeight="1">
@@ -1540,7 +1563,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" ht="32.4" customHeight="1">
@@ -1550,7 +1573,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="32.4" customHeight="1">
@@ -1560,7 +1583,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" ht="32.4" customHeight="1">
@@ -1570,7 +1593,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" ht="32.4" customHeight="1">
@@ -1580,7 +1603,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="32.4" customHeight="1">
@@ -1590,7 +1613,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" ht="32.4" customHeight="1">
@@ -1600,7 +1623,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="32.4" customHeight="1">
@@ -1610,7 +1633,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" ht="32.4" customHeight="1">
@@ -1620,7 +1643,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" ht="32.4" customHeight="1">
@@ -1630,7 +1653,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="32.4" customHeight="1">
@@ -1640,7 +1663,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" ht="32.4" customHeight="1">
@@ -1650,7 +1673,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" ht="32.4" customHeight="1">
@@ -1660,7 +1683,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="32.4" customHeight="1">
@@ -1670,7 +1693,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="32.4" customHeight="1">
@@ -1680,7 +1703,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" ht="32.4" customHeight="1">
@@ -1690,7 +1713,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" ht="32.4" customHeight="1">
@@ -1700,7 +1723,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" ht="32.4" customHeight="1">
@@ -1710,7 +1733,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" ht="32.4" customHeight="1">
@@ -1720,7 +1743,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" ht="32.4" customHeight="1">
@@ -1730,7 +1753,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" ht="32.4" customHeight="1">
@@ -1740,7 +1763,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="32.4" customHeight="1">
@@ -1750,7 +1773,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="1"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="32.4" customHeight="1">
@@ -1760,7 +1783,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="1"/>
+      <c r="G58" s="2"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" ht="32.4" customHeight="1">
@@ -1770,7 +1793,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" ht="32.4" customHeight="1">
@@ -1780,7 +1803,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="32.4" customHeight="1">
@@ -1790,7 +1813,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" ht="32.4" customHeight="1">
@@ -1800,7 +1823,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" ht="32.4" customHeight="1">
@@ -1810,7 +1833,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="1"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" ht="32.4" customHeight="1">
@@ -1820,7 +1843,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="32.4" customHeight="1">
@@ -1830,7 +1853,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8" ht="32.4" customHeight="1">
@@ -1840,7 +1863,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" ht="32.4" customHeight="1">
@@ -1850,7 +1873,7 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="1"/>
+      <c r="G67" s="2"/>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" ht="32.4" customHeight="1">
@@ -1860,7 +1883,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="32.4" customHeight="1">
@@ -1870,7 +1893,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" ht="32.4" customHeight="1">
@@ -1880,7 +1903,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="2"/>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" ht="32.4" customHeight="1">
@@ -1890,7 +1913,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="1"/>
+      <c r="G71" s="2"/>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" ht="32.4" customHeight="1">
@@ -1900,7 +1923,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="1"/>
+      <c r="G72" s="2"/>
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" ht="32.4" customHeight="1">
@@ -1910,7 +1933,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="1"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" ht="32.4" customHeight="1">
@@ -1920,7 +1943,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="1"/>
+      <c r="G74" s="2"/>
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8" ht="32.4" customHeight="1">
@@ -1930,7 +1953,7 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="1"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" ht="32.4" customHeight="1">
@@ -1940,7 +1963,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="1"/>
+      <c r="G76" s="2"/>
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" ht="32.4" customHeight="1">
@@ -1950,7 +1973,7 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="1"/>
+      <c r="G77" s="2"/>
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" ht="32.4" customHeight="1">
@@ -1960,7 +1983,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="1"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8" ht="32.4" customHeight="1">
@@ -1970,7 +1993,7 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="2"/>
-      <c r="G79" s="1"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8" ht="32.4" customHeight="1">
@@ -1980,7 +2003,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="1"/>
+      <c r="G80" s="2"/>
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" ht="32.4" customHeight="1">
@@ -1990,7 +2013,7 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="1"/>
+      <c r="G81" s="2"/>
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8" ht="32.4" customHeight="1">
@@ -2000,7 +2023,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="1"/>
+      <c r="G82" s="2"/>
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8" ht="32.4" customHeight="1">
@@ -2010,7 +2033,7 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="1"/>
+      <c r="G83" s="2"/>
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8" ht="32.4" customHeight="1">
@@ -2020,7 +2043,7 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="1"/>
+      <c r="G84" s="2"/>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" ht="32.4" customHeight="1">
@@ -2030,7 +2053,7 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="1"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8" ht="32.4" customHeight="1">
@@ -2040,7 +2063,7 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="1"/>
+      <c r="G86" s="2"/>
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" ht="32.4" customHeight="1">
@@ -2050,7 +2073,7 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="2"/>
-      <c r="G87" s="1"/>
+      <c r="G87" s="2"/>
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" ht="32.4" customHeight="1">
@@ -2060,7 +2083,7 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="2"/>
-      <c r="G88" s="1"/>
+      <c r="G88" s="2"/>
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" ht="32.4" customHeight="1">
@@ -2070,7 +2093,7 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="1"/>
+      <c r="G89" s="2"/>
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" ht="32.4" customHeight="1">
@@ -2080,7 +2103,7 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="1"/>
+      <c r="G90" s="2"/>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" ht="32.4" customHeight="1">
@@ -2090,7 +2113,7 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="1"/>
+      <c r="G91" s="2"/>
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" ht="32.4" customHeight="1">
@@ -2100,7 +2123,7 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="1"/>
+      <c r="G92" s="2"/>
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" ht="32.4" customHeight="1">
@@ -2110,7 +2133,7 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="1"/>
+      <c r="G93" s="2"/>
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" ht="32.4" customHeight="1">
@@ -2120,7 +2143,7 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="1"/>
+      <c r="G94" s="2"/>
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" ht="32.4" customHeight="1">
@@ -2130,7 +2153,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="2"/>
-      <c r="G95" s="1"/>
+      <c r="G95" s="2"/>
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" ht="32.4" customHeight="1">
@@ -2140,7 +2163,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="2"/>
-      <c r="G96" s="1"/>
+      <c r="G96" s="2"/>
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" ht="32.4" customHeight="1">
@@ -2150,7 +2173,7 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="2"/>
-      <c r="G97" s="1"/>
+      <c r="G97" s="2"/>
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" ht="32.4" customHeight="1">
@@ -2160,7 +2183,7 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="2"/>
-      <c r="G98" s="1"/>
+      <c r="G98" s="2"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" ht="32.4" customHeight="1">
@@ -2170,7 +2193,7 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="2"/>
-      <c r="G99" s="1"/>
+      <c r="G99" s="2"/>
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" ht="32.4" customHeight="1">
@@ -2180,7 +2203,7 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="2"/>
-      <c r="G100" s="1"/>
+      <c r="G100" s="2"/>
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" ht="32.4" customHeight="1">
@@ -2190,7 +2213,7 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="2"/>
-      <c r="G101" s="1"/>
+      <c r="G101" s="2"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" ht="32.4" customHeight="1">
@@ -2200,7 +2223,7 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="2"/>
-      <c r="G102" s="1"/>
+      <c r="G102" s="2"/>
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" ht="32.4" customHeight="1">
@@ -2210,7 +2233,7 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="2"/>
-      <c r="G103" s="1"/>
+      <c r="G103" s="2"/>
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" ht="32.4" customHeight="1">
@@ -2220,7 +2243,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="2"/>
-      <c r="G104" s="1"/>
+      <c r="G104" s="2"/>
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" ht="32.4" customHeight="1">
@@ -2230,7 +2253,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="2"/>
-      <c r="G105" s="1"/>
+      <c r="G105" s="2"/>
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" ht="32.4" customHeight="1">
@@ -2240,10 +2263,23 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="2"/>
-      <c r="G106" s="1"/>
+      <c r="G106" s="2"/>
       <c r="H106" s="6"/>
     </row>
+    <row r="107" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="6"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:G1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="34" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล) ssk.xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล) ssk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE647420-E89E-4E14-9A56-E2F6ADE53A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF82935-FB55-4FDC-9194-18B5DA7EFB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>ID No.</t>
   </si>
@@ -47,12 +47,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>KOKUSAN</t>
-  </si>
-  <si>
-    <t>H-11NC</t>
-  </si>
-  <si>
     <t>Equipment</t>
   </si>
   <si>
@@ -74,325 +68,109 @@
     <t>REFRIGERATOR</t>
   </si>
   <si>
-    <t>FREEZER</t>
-  </si>
-  <si>
     <t>ROTATOR</t>
   </si>
   <si>
-    <t>SCILOGEX</t>
-  </si>
-  <si>
-    <t>H-19α</t>
-  </si>
-  <si>
-    <t>OLYMPUS</t>
-  </si>
-  <si>
-    <t>CX31RBSFA</t>
-  </si>
-  <si>
-    <t>MEDICOOL</t>
-  </si>
-  <si>
     <t>CENTRIFUGE</t>
   </si>
   <si>
-    <t>VORTEX MIXER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENTRIFUGE </t>
-  </si>
-  <si>
-    <t>LAB-BCT-010</t>
-  </si>
-  <si>
-    <t>CF25052555</t>
-  </si>
-  <si>
-    <t>LAB-BCT-013</t>
-  </si>
-  <si>
-    <t>CF25052556</t>
-  </si>
-  <si>
-    <t>THERMO SCIENTIFIC</t>
-  </si>
-  <si>
-    <t>PLF276</t>
-  </si>
-  <si>
-    <t>27600314040067</t>
-  </si>
-  <si>
-    <t>LAB-BCT-018</t>
-  </si>
-  <si>
-    <t>CH25052557</t>
-  </si>
-  <si>
-    <t>PLR1006</t>
-  </si>
-  <si>
-    <t>10060314040057</t>
-  </si>
-  <si>
-    <t>LAB-BCT-017</t>
-  </si>
-  <si>
-    <t>CH25052558</t>
-  </si>
-  <si>
-    <t>MDC090</t>
-  </si>
-  <si>
-    <t>MDC090-202311031</t>
-  </si>
-  <si>
-    <t>LAB-BCT-067</t>
-  </si>
-  <si>
-    <t>CH25052559</t>
-  </si>
-  <si>
-    <t>PANASONIC</t>
-  </si>
-  <si>
-    <t>MBR-305GR-PE</t>
-  </si>
-  <si>
-    <t>14060058</t>
-  </si>
-  <si>
-    <t>LAB-BCT-016</t>
-  </si>
-  <si>
-    <t>CH25052560</t>
-  </si>
-  <si>
-    <t>BIO RAD</t>
-  </si>
-  <si>
-    <t>DIACENT - 12</t>
-  </si>
-  <si>
-    <t>2001729</t>
-  </si>
-  <si>
-    <t>LAB-BCT-021</t>
-  </si>
-  <si>
-    <t>CF25052561</t>
-  </si>
-  <si>
-    <t>KOMABIOTECH</t>
-  </si>
-  <si>
-    <t>KE011</t>
-  </si>
-  <si>
-    <t>19141-19</t>
-  </si>
-  <si>
-    <t>LAB-BCT-026</t>
-  </si>
-  <si>
-    <t>CF25052562</t>
-  </si>
-  <si>
-    <t>WATER BATH</t>
-  </si>
-  <si>
-    <t>MEMMERT</t>
-  </si>
-  <si>
-    <t>WNB 14</t>
-  </si>
-  <si>
-    <t>L414.0476</t>
-  </si>
-  <si>
-    <t>LAB-BCT-014</t>
-  </si>
-  <si>
-    <t>WB25052563</t>
-  </si>
-  <si>
-    <t>ORTHO</t>
-  </si>
-  <si>
-    <t>WORKSTATION</t>
-  </si>
-  <si>
-    <t>C-BCT-008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICROSCOPE </t>
-  </si>
-  <si>
-    <t>SYSMEX</t>
-  </si>
-  <si>
-    <t>CA-50</t>
-  </si>
-  <si>
-    <t>A1207</t>
-  </si>
-  <si>
-    <t>C-BCT-012</t>
-  </si>
-  <si>
-    <t>PM ONLY</t>
-  </si>
-  <si>
-    <t>AUTOMATE SLIDE STAINER</t>
-  </si>
-  <si>
-    <t>WELLGATE</t>
-  </si>
-  <si>
-    <t>WG-901</t>
-  </si>
-  <si>
-    <t>C-BCT-025</t>
-  </si>
-  <si>
-    <t>SLIDE WARMER</t>
-  </si>
-  <si>
-    <t>CHANG SHIN SCIENTIFIC</t>
-  </si>
-  <si>
-    <t>C-SL</t>
-  </si>
-  <si>
-    <t>LAB-BCT-060</t>
-  </si>
-  <si>
-    <t>DB25052566</t>
-  </si>
-  <si>
     <t>HEMATOCRIT CENTRIFUGE</t>
   </si>
   <si>
-    <t>UGAIYA</t>
-  </si>
-  <si>
-    <t>H1650-W</t>
-  </si>
-  <si>
-    <t>W1670002301001</t>
-  </si>
-  <si>
-    <t>LAB-BCT-066</t>
-  </si>
-  <si>
-    <t>CF25052567</t>
-  </si>
-  <si>
-    <t>PEN REFRACTOMETER</t>
-  </si>
-  <si>
-    <t>A202412</t>
-  </si>
-  <si>
-    <t>LAB-BCT-001</t>
-  </si>
-  <si>
-    <t>2L09565</t>
-  </si>
-  <si>
-    <t>LAB-BCT-002</t>
-  </si>
-  <si>
-    <t>4A40059 201401</t>
-  </si>
-  <si>
-    <t>LAB-BCT-009</t>
-  </si>
-  <si>
-    <t>LMS</t>
-  </si>
-  <si>
-    <t>VTX-3000L</t>
-  </si>
-  <si>
-    <t>LAB-BCT-011</t>
-  </si>
-  <si>
-    <t>ANALOG TUBE ROLLER</t>
-  </si>
-  <si>
-    <t>MX-T6-S</t>
-  </si>
-  <si>
-    <t>VF3D001939</t>
-  </si>
-  <si>
-    <t>LAB-BCT-024</t>
-  </si>
-  <si>
-    <t>BACTI-CINERATOR STERILIZER</t>
-  </si>
-  <si>
-    <t>LAB READER</t>
-  </si>
-  <si>
-    <t>HM-3000A</t>
-  </si>
-  <si>
-    <t>LL-HMA-100</t>
-  </si>
-  <si>
-    <t>LAB-BCT-025</t>
-  </si>
-  <si>
-    <t>TUBE SEALER</t>
-  </si>
-  <si>
-    <t>TERUMO PENPOL</t>
-  </si>
-  <si>
-    <t>XS1010</t>
-  </si>
-  <si>
-    <t>LAB-BCT-029</t>
-  </si>
-  <si>
-    <t>TOSHIBA</t>
-  </si>
-  <si>
-    <t>GR-A906ZI</t>
-  </si>
-  <si>
-    <t>1161003000059</t>
-  </si>
-  <si>
-    <t>LAB-BCT-057</t>
-  </si>
-  <si>
-    <t>ยกเลิก (ไม่ใช้งาน)</t>
-  </si>
-  <si>
-    <t>MELING</t>
-  </si>
-  <si>
-    <t>XC-268L</t>
-  </si>
-  <si>
-    <t>LAB-BCT-090</t>
-  </si>
-  <si>
-    <t>CH25052569</t>
-  </si>
-  <si>
-    <t>DB25052565</t>
-  </si>
-  <si>
-    <t>CF25052564</t>
-  </si>
-  <si>
-    <t>INCUBATOR</t>
+    <t>MITSUBISHI</t>
+  </si>
+  <si>
+    <t>MR-F41H</t>
+  </si>
+  <si>
+    <t>CH25062690</t>
+  </si>
+  <si>
+    <t>Helmer</t>
+  </si>
+  <si>
+    <t>iB111</t>
+  </si>
+  <si>
+    <t>CH25062691</t>
+  </si>
+  <si>
+    <t>LUCKYSTAR</t>
+  </si>
+  <si>
+    <t>Canyon 208NE</t>
+  </si>
+  <si>
+    <t>CH25062692</t>
+  </si>
+  <si>
+    <t>Boeco</t>
+  </si>
+  <si>
+    <t>SC-8</t>
+  </si>
+  <si>
+    <t>CF25062693</t>
+  </si>
+  <si>
+    <t>CF25062694</t>
+  </si>
+  <si>
+    <t>0000409-03</t>
+  </si>
+  <si>
+    <t>CF25062695</t>
+  </si>
+  <si>
+    <t>0001107-06</t>
+  </si>
+  <si>
+    <t>CF25062696</t>
+  </si>
+  <si>
+    <t>0001104-06</t>
+  </si>
+  <si>
+    <t>CF25062697</t>
+  </si>
+  <si>
+    <t>elektro.mag</t>
+  </si>
+  <si>
+    <t>M19PII</t>
+  </si>
+  <si>
+    <t>CF25062698</t>
+  </si>
+  <si>
+    <t>Gemmy</t>
+  </si>
+  <si>
+    <t>VRN-360</t>
+  </si>
+  <si>
+    <t>CF25062699</t>
+  </si>
+  <si>
+    <t>ROLLER MIXER</t>
+  </si>
+  <si>
+    <t>ASSISTANT</t>
+  </si>
+  <si>
+    <t>RM 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFRACTOMETER  </t>
+  </si>
+  <si>
+    <t>ATAGO</t>
+  </si>
+  <si>
+    <t>MASTER-URC/NM</t>
   </si>
 </sst>
 </file>
@@ -483,7 +261,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -512,6 +290,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -840,7 +621,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -858,99 +639,99 @@
   <sheetData>
     <row r="1" spans="1:8" s="10" customFormat="1" ht="33.6" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>145758</v>
+        <v>50500476</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>45803</v>
+        <v>45811</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>146985</v>
+        <v>2002768</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2">
-        <v>45803</v>
+        <v>45811</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="D4" s="11">
+        <v>100005000000000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>45803</v>
+        <v>45811</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -959,22 +740,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="1">
+        <v>222</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>45803</v>
+        <v>45811</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -983,22 +764,22 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>231</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2">
-        <v>45803</v>
+        <v>45811</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -1007,453 +788,287 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2">
-        <v>45803</v>
+        <v>45811</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2">
-        <v>45803</v>
+        <v>45811</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2">
-        <v>45803</v>
+        <v>45811</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22080325</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2">
-        <v>45803</v>
+        <v>45811</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1">
-        <v>61000429</v>
+        <v>1514707</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2">
-        <v>45803</v>
+        <v>45811</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1">
-        <v>61000429</v>
+        <v>6025000146</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2">
-        <v>45803</v>
+        <v>45811</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="D13" s="1">
+        <v>405538</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2">
-        <v>45803</v>
+        <v>45811</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1807901130</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="2">
-        <v>45803</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="1">
-        <v>161024</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45803</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="2">
-        <v>45803</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45803</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="2">
-        <v>45803</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="2">
-        <v>45803</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1311010946</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="2">
-        <v>45803</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="2">
-        <v>45803</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="2">
-        <v>45803</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="1">
-        <v>14022940</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="2">
-        <v>45803</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="1">
-        <v>230302511</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="2">
-        <v>45803</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="32.4" customHeight="1">

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล) ssk.xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล) ssk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF82935-FB55-4FDC-9194-18B5DA7EFB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1335B73A-3A51-4C48-BA92-FE37DC750AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>ID No.</t>
   </si>
@@ -77,100 +77,193 @@
     <t>HEMATOCRIT CENTRIFUGE</t>
   </si>
   <si>
-    <t>MITSUBISHI</t>
-  </si>
-  <si>
-    <t>MR-F41H</t>
-  </si>
-  <si>
-    <t>CH25062690</t>
-  </si>
-  <si>
-    <t>Helmer</t>
-  </si>
-  <si>
-    <t>iB111</t>
-  </si>
-  <si>
-    <t>CH25062691</t>
-  </si>
-  <si>
-    <t>LUCKYSTAR</t>
-  </si>
-  <si>
-    <t>Canyon 208NE</t>
-  </si>
-  <si>
-    <t>CH25062692</t>
-  </si>
-  <si>
-    <t>Boeco</t>
-  </si>
-  <si>
-    <t>SC-8</t>
-  </si>
-  <si>
-    <t>CF25062693</t>
-  </si>
-  <si>
-    <t>CF25062694</t>
-  </si>
-  <si>
-    <t>0000409-03</t>
-  </si>
-  <si>
-    <t>CF25062695</t>
-  </si>
-  <si>
-    <t>0001107-06</t>
-  </si>
-  <si>
-    <t>CF25062696</t>
-  </si>
-  <si>
-    <t>0001104-06</t>
-  </si>
-  <si>
-    <t>CF25062697</t>
-  </si>
-  <si>
-    <t>elektro.mag</t>
-  </si>
-  <si>
-    <t>M19PII</t>
-  </si>
-  <si>
-    <t>CF25062698</t>
-  </si>
-  <si>
-    <t>Gemmy</t>
-  </si>
-  <si>
-    <t>VRN-360</t>
-  </si>
-  <si>
-    <t>CF25062699</t>
-  </si>
-  <si>
-    <t>ROLLER MIXER</t>
-  </si>
-  <si>
-    <t>ASSISTANT</t>
-  </si>
-  <si>
-    <t>RM 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFRACTOMETER  </t>
-  </si>
-  <si>
-    <t>ATAGO</t>
-  </si>
-  <si>
-    <t>MASTER-URC/NM</t>
+    <t>WATER BATH</t>
+  </si>
+  <si>
+    <t>ESSTELL</t>
+  </si>
+  <si>
+    <t>EWB-106D</t>
+  </si>
+  <si>
+    <t>PTH01140</t>
+  </si>
+  <si>
+    <t>WB25062805</t>
+  </si>
+  <si>
+    <t>BIO-RAD</t>
+  </si>
+  <si>
+    <t>DIACENT-12</t>
+  </si>
+  <si>
+    <t>2001047</t>
+  </si>
+  <si>
+    <t>PTH01142</t>
+  </si>
+  <si>
+    <t>CF25062806</t>
+  </si>
+  <si>
+    <t>CENTURION SCIENTIFIC</t>
+  </si>
+  <si>
+    <t>PRO-HOSPITAL.GP</t>
+  </si>
+  <si>
+    <t>216069-12</t>
+  </si>
+  <si>
+    <t>PTH01143</t>
+  </si>
+  <si>
+    <t>CF25062807</t>
+  </si>
+  <si>
+    <t>NUVE</t>
+  </si>
+  <si>
+    <t>NF 200</t>
+  </si>
+  <si>
+    <t>02.11738</t>
+  </si>
+  <si>
+    <t>PTH01144</t>
+  </si>
+  <si>
+    <t>CF25062808</t>
+  </si>
+  <si>
+    <t>SCILOGEX</t>
+  </si>
+  <si>
+    <t>DM1424</t>
+  </si>
+  <si>
+    <t>LM4E000540</t>
+  </si>
+  <si>
+    <t>PTH01145</t>
+  </si>
+  <si>
+    <t>CF25062809</t>
+  </si>
+  <si>
+    <t>FREEZER</t>
+  </si>
+  <si>
+    <t>HAIER</t>
+  </si>
+  <si>
+    <t>HCF-300DP</t>
+  </si>
+  <si>
+    <t>B30LF 2E000 0QMM4 20019</t>
+  </si>
+  <si>
+    <t>PTH01146</t>
+  </si>
+  <si>
+    <t>CH25062810</t>
+  </si>
+  <si>
+    <t>DRY BATH INCUBATOR</t>
+  </si>
+  <si>
+    <t>MAJOR SCIENCE</t>
+  </si>
+  <si>
+    <t>EL-01</t>
+  </si>
+  <si>
+    <t>PTH01147</t>
+  </si>
+  <si>
+    <t>DB25062811</t>
+  </si>
+  <si>
+    <t>DIGISYSTEM</t>
+  </si>
+  <si>
+    <t>DSR-2100A</t>
+  </si>
+  <si>
+    <t>0910304</t>
+  </si>
+  <si>
+    <t>PTH01149</t>
+  </si>
+  <si>
+    <t>ยกเลิก</t>
+  </si>
+  <si>
+    <t>PHCBI</t>
+  </si>
+  <si>
+    <t>MBR-705GR-PE</t>
+  </si>
+  <si>
+    <t>17100060</t>
+  </si>
+  <si>
+    <t>PTH01150</t>
+  </si>
+  <si>
+    <t>CH25062813</t>
+  </si>
+  <si>
+    <t>SONGSERM INTERCOOL</t>
+  </si>
+  <si>
+    <t>SDC-1000AY</t>
+  </si>
+  <si>
+    <t>SDC1000101-0212-03032</t>
+  </si>
+  <si>
+    <t>PTH01154</t>
+  </si>
+  <si>
+    <t>CH25062814</t>
+  </si>
+  <si>
+    <t>SIAMATIC</t>
+  </si>
+  <si>
+    <t>HURR PLUS 2 DS</t>
+  </si>
+  <si>
+    <t>HUP-02-L0166-1166-011</t>
+  </si>
+  <si>
+    <t>PTH01155</t>
+  </si>
+  <si>
+    <t>CH25062815</t>
+  </si>
+  <si>
+    <t>HUP-02-L0166-1166-016</t>
+  </si>
+  <si>
+    <t>PTH01156</t>
+  </si>
+  <si>
+    <t>CH25062816</t>
+  </si>
+  <si>
+    <t>DLAB</t>
+  </si>
+  <si>
+    <t>SK-O180-S</t>
+  </si>
+  <si>
+    <t>SN24ABE0003461</t>
+  </si>
+  <si>
+    <t>CF25062812</t>
   </si>
 </sst>
 </file>
@@ -620,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -665,73 +758,73 @@
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
-        <v>50500476</v>
+        <v>2018050863</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
-        <v>45811</v>
+        <v>45817</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2002768</v>
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>45811</v>
+        <v>45817</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="11">
-        <v>100005000000000</v>
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
-        <v>45811</v>
+        <v>45817</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -740,225 +833,239 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1">
-        <v>222</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
-        <v>45811</v>
+        <v>45817</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="32.4" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1">
-        <v>231</v>
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2">
-        <v>45811</v>
+        <v>45817</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2">
-        <v>45811</v>
+        <v>45817</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="D8" s="1">
+        <v>130422246</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2">
-        <v>45811</v>
+        <v>45817</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="2">
-        <v>45811</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1">
-        <v>22080325</v>
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2">
-        <v>45811</v>
+        <v>45817</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1514707</v>
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2">
-        <v>45811</v>
+        <v>45817</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1">
-        <v>6025000146</v>
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2">
-        <v>45811</v>
+        <v>45817</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1">
-        <v>405538</v>
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45817</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="2">
-        <v>45811</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="2">
+        <v>45817</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="32.4" customHeight="1">

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล) ssk.xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล) ssk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1335B73A-3A51-4C48-BA92-FE37DC750AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBD57B8-EAB7-4B2A-86B2-D1296BDFA810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>ID No.</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Certificate No.</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Equipment</t>
   </si>
   <si>
@@ -68,202 +65,253 @@
     <t>REFRIGERATOR</t>
   </si>
   <si>
-    <t>ROTATOR</t>
-  </si>
-  <si>
     <t>CENTRIFUGE</t>
   </si>
   <si>
-    <t>HEMATOCRIT CENTRIFUGE</t>
-  </si>
-  <si>
     <t>WATER BATH</t>
   </si>
   <si>
-    <t>ESSTELL</t>
-  </si>
-  <si>
-    <t>EWB-106D</t>
-  </si>
-  <si>
-    <t>PTH01140</t>
-  </si>
-  <si>
-    <t>WB25062805</t>
-  </si>
-  <si>
-    <t>BIO-RAD</t>
-  </si>
-  <si>
-    <t>DIACENT-12</t>
-  </si>
-  <si>
-    <t>2001047</t>
-  </si>
-  <si>
-    <t>PTH01142</t>
-  </si>
-  <si>
-    <t>CF25062806</t>
-  </si>
-  <si>
-    <t>CENTURION SCIENTIFIC</t>
-  </si>
-  <si>
-    <t>PRO-HOSPITAL.GP</t>
-  </si>
-  <si>
-    <t>216069-12</t>
-  </si>
-  <si>
-    <t>PTH01143</t>
-  </si>
-  <si>
-    <t>CF25062807</t>
-  </si>
-  <si>
-    <t>NUVE</t>
-  </si>
-  <si>
-    <t>NF 200</t>
-  </si>
-  <si>
-    <t>02.11738</t>
-  </si>
-  <si>
-    <t>PTH01144</t>
-  </si>
-  <si>
-    <t>CF25062808</t>
-  </si>
-  <si>
-    <t>SCILOGEX</t>
-  </si>
-  <si>
-    <t>DM1424</t>
-  </si>
-  <si>
-    <t>LM4E000540</t>
-  </si>
-  <si>
-    <t>PTH01145</t>
-  </si>
-  <si>
-    <t>CF25062809</t>
-  </si>
-  <si>
     <t>FREEZER</t>
   </si>
   <si>
-    <t>HAIER</t>
-  </si>
-  <si>
-    <t>HCF-300DP</t>
-  </si>
-  <si>
-    <t>B30LF 2E000 0QMM4 20019</t>
-  </si>
-  <si>
-    <t>PTH01146</t>
-  </si>
-  <si>
-    <t>CH25062810</t>
-  </si>
-  <si>
-    <t>DRY BATH INCUBATOR</t>
-  </si>
-  <si>
-    <t>MAJOR SCIENCE</t>
-  </si>
-  <si>
-    <t>EL-01</t>
-  </si>
-  <si>
-    <t>PTH01147</t>
-  </si>
-  <si>
-    <t>DB25062811</t>
-  </si>
-  <si>
-    <t>DIGISYSTEM</t>
-  </si>
-  <si>
-    <t>DSR-2100A</t>
-  </si>
-  <si>
-    <t>0910304</t>
-  </si>
-  <si>
-    <t>PTH01149</t>
-  </si>
-  <si>
-    <t>ยกเลิก</t>
-  </si>
-  <si>
-    <t>PHCBI</t>
-  </si>
-  <si>
-    <t>MBR-705GR-PE</t>
-  </si>
-  <si>
-    <t>17100060</t>
-  </si>
-  <si>
-    <t>PTH01150</t>
-  </si>
-  <si>
-    <t>CH25062813</t>
-  </si>
-  <si>
-    <t>SONGSERM INTERCOOL</t>
-  </si>
-  <si>
-    <t>SDC-1000AY</t>
-  </si>
-  <si>
-    <t>SDC1000101-0212-03032</t>
-  </si>
-  <si>
-    <t>PTH01154</t>
-  </si>
-  <si>
-    <t>CH25062814</t>
-  </si>
-  <si>
-    <t>SIAMATIC</t>
-  </si>
-  <si>
-    <t>HURR PLUS 2 DS</t>
-  </si>
-  <si>
-    <t>HUP-02-L0166-1166-011</t>
-  </si>
-  <si>
-    <t>PTH01155</t>
-  </si>
-  <si>
-    <t>CH25062815</t>
-  </si>
-  <si>
-    <t>HUP-02-L0166-1166-016</t>
-  </si>
-  <si>
-    <t>PTH01156</t>
-  </si>
-  <si>
-    <t>CH25062816</t>
-  </si>
-  <si>
-    <t>DLAB</t>
-  </si>
-  <si>
-    <t>SK-O180-S</t>
-  </si>
-  <si>
-    <t>SN24ABE0003461</t>
-  </si>
-  <si>
-    <t>CF25062812</t>
+    <t>HOT AIR OVEN</t>
+  </si>
+  <si>
+    <t>BINDER</t>
+  </si>
+  <si>
+    <t>RF 53</t>
+  </si>
+  <si>
+    <t>RL15-07514</t>
+  </si>
+  <si>
+    <t>NHP-CT-013</t>
+  </si>
+  <si>
+    <t>CH25052997</t>
+  </si>
+  <si>
+    <t>HETTICH</t>
+  </si>
+  <si>
+    <t>ROTINA 46</t>
+  </si>
+  <si>
+    <t>0000240</t>
+  </si>
+  <si>
+    <t>NHP-C-CT-003</t>
+  </si>
+  <si>
+    <t>CF25052998</t>
+  </si>
+  <si>
+    <t>ELECTRONIC BALANCE</t>
+  </si>
+  <si>
+    <t>OHAUS</t>
+  </si>
+  <si>
+    <t>V22PWE3T</t>
+  </si>
+  <si>
+    <t>8338347025</t>
+  </si>
+  <si>
+    <t>NHP-HIS-006</t>
+  </si>
+  <si>
+    <t>EB25052999</t>
+  </si>
+  <si>
+    <t>FB3</t>
+  </si>
+  <si>
+    <t>8027090157</t>
+  </si>
+  <si>
+    <t>NHP-HIS-007</t>
+  </si>
+  <si>
+    <t>EB25053000</t>
+  </si>
+  <si>
+    <t>8337110661</t>
+  </si>
+  <si>
+    <t>NHP-HIS-008</t>
+  </si>
+  <si>
+    <t>EB25053001</t>
+  </si>
+  <si>
+    <t>SARTORIUS</t>
+  </si>
+  <si>
+    <t>BSA3202S-CW</t>
+  </si>
+  <si>
+    <t>26290320</t>
+  </si>
+  <si>
+    <t>NHP-HIS-009</t>
+  </si>
+  <si>
+    <t>EB25053002</t>
+  </si>
+  <si>
+    <t>MEMMERT</t>
+  </si>
+  <si>
+    <t>UF30</t>
+  </si>
+  <si>
+    <t>B124.2173</t>
+  </si>
+  <si>
+    <t>NHP-HIS-015</t>
+  </si>
+  <si>
+    <t>CH25053003</t>
+  </si>
+  <si>
+    <t>UN30</t>
+  </si>
+  <si>
+    <t>B121.0649</t>
+  </si>
+  <si>
+    <t>NHP-HIS-016</t>
+  </si>
+  <si>
+    <t>CH25053004</t>
+  </si>
+  <si>
+    <t>ZEEDO</t>
+  </si>
+  <si>
+    <t>HS1125</t>
+  </si>
+  <si>
+    <t>CJHS2099-32HS1125</t>
+  </si>
+  <si>
+    <t>NHP-HIS-033</t>
+  </si>
+  <si>
+    <t>WB25053005</t>
+  </si>
+  <si>
+    <t>ELECTROTHERMAL</t>
+  </si>
+  <si>
+    <t>MH8517</t>
+  </si>
+  <si>
+    <t>M553340/07</t>
+  </si>
+  <si>
+    <t>NHP-HIS-034</t>
+  </si>
+  <si>
+    <t>WB25053006</t>
+  </si>
+  <si>
+    <t>M577610/08</t>
+  </si>
+  <si>
+    <t>NHP-HIS-035</t>
+  </si>
+  <si>
+    <t>WB25053007</t>
+  </si>
+  <si>
+    <t>LEICA</t>
+  </si>
+  <si>
+    <t>HI1210</t>
+  </si>
+  <si>
+    <t>16634</t>
+  </si>
+  <si>
+    <t>NHP-HIS-036</t>
+  </si>
+  <si>
+    <t>WB25053008</t>
+  </si>
+  <si>
+    <t>ยี่ห้อ13</t>
+  </si>
+  <si>
+    <t>รุ่น13</t>
+  </si>
+  <si>
+    <t>หมายเลขเครื่อง13</t>
+  </si>
+  <si>
+    <t>NHP-HIS-038</t>
+  </si>
+  <si>
+    <t>ยกเลิก(เครื่องเสีย)</t>
+  </si>
+  <si>
+    <t>MEDICOOL</t>
+  </si>
+  <si>
+    <t>MDC145</t>
+  </si>
+  <si>
+    <t>MDC145-202311046</t>
+  </si>
+  <si>
+    <t>NHP-MOL-003</t>
+  </si>
+  <si>
+    <t>CH25053010</t>
+  </si>
+  <si>
+    <t>MDC115</t>
+  </si>
+  <si>
+    <t>MDC115-202311019</t>
+  </si>
+  <si>
+    <t>NHP-MOL-004</t>
+  </si>
+  <si>
+    <t>CH25053011</t>
+  </si>
+  <si>
+    <t>LABTRON</t>
+  </si>
+  <si>
+    <t>CF8</t>
+  </si>
+  <si>
+    <t>1110801241A006</t>
+  </si>
+  <si>
+    <t>NHP-MOL-006</t>
+  </si>
+  <si>
+    <t>CF25053012</t>
+  </si>
+  <si>
+    <t>UGAIYA</t>
+  </si>
+  <si>
+    <t>TXD3</t>
+  </si>
+  <si>
+    <t>W19800024030108</t>
+  </si>
+  <si>
+    <t>NHP-CT-0048</t>
+  </si>
+  <si>
+    <t>CF25053009</t>
   </si>
 </sst>
 </file>
@@ -713,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -732,48 +780,48 @@
   <sheetData>
     <row r="1" spans="1:8" s="10" customFormat="1" ht="33.6" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2018050863</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="2">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -782,7 +830,7 @@
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -797,7 +845,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -806,34 +854,34 @@
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="32.4" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>29</v>
@@ -845,7 +893,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="2">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
@@ -854,258 +902,314 @@
     </row>
     <row r="6" spans="1:8" ht="32.4" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="2">
+        <v>45825</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45817</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="2">
+        <v>45824</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45817</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="F8" s="2">
+        <v>45826</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="1">
-        <v>130422246</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45817</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45825</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45826</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45817</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45825</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45817</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2">
-        <v>45817</v>
+        <v>45826</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="2">
-        <v>45817</v>
+        <v>45825</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>45817</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45824</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45824</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45826</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45824</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1">

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล) ssk.xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล) ssk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CC464C-BF3B-4B0A-A570-1533E43A5B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD93F92-DCBA-4617-89EC-E3D820A8F25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>ID No.</t>
   </si>
@@ -71,247 +71,157 @@
     <t>WATER BATH</t>
   </si>
   <si>
-    <t>FREEZER</t>
-  </si>
-  <si>
-    <t>HOT AIR OVEN</t>
-  </si>
-  <si>
-    <t>BINDER</t>
-  </si>
-  <si>
-    <t>RF 53</t>
-  </si>
-  <si>
-    <t>RL15-07514</t>
-  </si>
-  <si>
-    <t>NHP-CT-013</t>
-  </si>
-  <si>
-    <t>HETTICH</t>
-  </si>
-  <si>
-    <t>ROTINA 46</t>
-  </si>
-  <si>
-    <t>0000240</t>
-  </si>
-  <si>
-    <t>NHP-C-CT-003</t>
-  </si>
-  <si>
-    <t>ELECTRONIC BALANCE</t>
-  </si>
-  <si>
-    <t>OHAUS</t>
-  </si>
-  <si>
-    <t>V22PWE3T</t>
-  </si>
-  <si>
-    <t>8338347025</t>
-  </si>
-  <si>
-    <t>NHP-HIS-006</t>
-  </si>
-  <si>
-    <t>FB3</t>
-  </si>
-  <si>
-    <t>8027090157</t>
-  </si>
-  <si>
-    <t>NHP-HIS-007</t>
-  </si>
-  <si>
-    <t>8337110661</t>
-  </si>
-  <si>
-    <t>NHP-HIS-008</t>
-  </si>
-  <si>
-    <t>SARTORIUS</t>
-  </si>
-  <si>
-    <t>BSA3202S-CW</t>
-  </si>
-  <si>
-    <t>26290320</t>
-  </si>
-  <si>
-    <t>NHP-HIS-009</t>
-  </si>
-  <si>
-    <t>MEMMERT</t>
-  </si>
-  <si>
-    <t>UF30</t>
-  </si>
-  <si>
-    <t>B124.2173</t>
-  </si>
-  <si>
-    <t>NHP-HIS-015</t>
-  </si>
-  <si>
-    <t>UN30</t>
-  </si>
-  <si>
-    <t>B121.0649</t>
-  </si>
-  <si>
-    <t>NHP-HIS-016</t>
-  </si>
-  <si>
-    <t>ZEEDO</t>
-  </si>
-  <si>
-    <t>HS1125</t>
-  </si>
-  <si>
-    <t>CJHS2099-32HS1125</t>
-  </si>
-  <si>
-    <t>NHP-HIS-033</t>
-  </si>
-  <si>
-    <t>ELECTROTHERMAL</t>
-  </si>
-  <si>
-    <t>MH8517</t>
-  </si>
-  <si>
-    <t>M553340/07</t>
-  </si>
-  <si>
-    <t>NHP-HIS-034</t>
-  </si>
-  <si>
-    <t>M577610/08</t>
-  </si>
-  <si>
-    <t>NHP-HIS-035</t>
-  </si>
-  <si>
-    <t>LEICA</t>
-  </si>
-  <si>
-    <t>HI1210</t>
-  </si>
-  <si>
-    <t>16634</t>
-  </si>
-  <si>
-    <t>NHP-HIS-036</t>
-  </si>
-  <si>
-    <t>ยี่ห้อ13</t>
-  </si>
-  <si>
-    <t>รุ่น13</t>
-  </si>
-  <si>
-    <t>หมายเลขเครื่อง13</t>
-  </si>
-  <si>
-    <t>NHP-HIS-038</t>
-  </si>
-  <si>
-    <t>ยกเลิก(เครื่องเสีย)</t>
-  </si>
-  <si>
     <t>MEDICOOL</t>
   </si>
   <si>
-    <t>MDC145</t>
-  </si>
-  <si>
-    <t>MDC145-202311046</t>
-  </si>
-  <si>
-    <t>NHP-MOL-003</t>
-  </si>
-  <si>
-    <t>MDC115</t>
-  </si>
-  <si>
-    <t>MDC115-202311019</t>
-  </si>
-  <si>
-    <t>NHP-MOL-004</t>
-  </si>
-  <si>
-    <t>LABTRON</t>
-  </si>
-  <si>
-    <t>CF8</t>
-  </si>
-  <si>
-    <t>1110801241A006</t>
-  </si>
-  <si>
-    <t>NHP-MOL-006</t>
-  </si>
-  <si>
-    <t>UGAIYA</t>
-  </si>
-  <si>
-    <t>TXD3</t>
-  </si>
-  <si>
-    <t>W19800024030108</t>
-  </si>
-  <si>
-    <t>NHP-CT-0048</t>
-  </si>
-  <si>
-    <t>CH25062997</t>
-  </si>
-  <si>
-    <t>CF25062998</t>
-  </si>
-  <si>
-    <t>EB25062999</t>
-  </si>
-  <si>
-    <t>EB25063000</t>
-  </si>
-  <si>
-    <t>EB25063001</t>
-  </si>
-  <si>
-    <t>EB25063002</t>
-  </si>
-  <si>
-    <t>CH25063003</t>
-  </si>
-  <si>
-    <t>CH25063004</t>
-  </si>
-  <si>
-    <t>WB25063005</t>
-  </si>
-  <si>
-    <t>WB25063006</t>
-  </si>
-  <si>
-    <t>WB25063007</t>
-  </si>
-  <si>
-    <t>WB25063008</t>
-  </si>
-  <si>
-    <t>CH25063010</t>
-  </si>
-  <si>
-    <t>CH25063011</t>
-  </si>
-  <si>
-    <t>CF25063012</t>
-  </si>
-  <si>
-    <t>CF25063009</t>
+    <t>CLAY ADAM</t>
+  </si>
+  <si>
+    <t>SERO-FUGE</t>
+  </si>
+  <si>
+    <t>RVU-SE-001</t>
+  </si>
+  <si>
+    <t>CF25062752</t>
+  </si>
+  <si>
+    <t>GEMMY</t>
+  </si>
+  <si>
+    <t>YCW-01</t>
+  </si>
+  <si>
+    <t>RVU-TM-001</t>
+  </si>
+  <si>
+    <t>WB25062753</t>
+  </si>
+  <si>
+    <t>MDC-BB117</t>
+  </si>
+  <si>
+    <t>MDC-BB117-202003002</t>
+  </si>
+  <si>
+    <t>RVU-TM-006</t>
+  </si>
+  <si>
+    <t>CH25062754</t>
+  </si>
+  <si>
+    <t>SCILOGEX</t>
+  </si>
+  <si>
+    <t>DM0412</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>RVU-LAB-003</t>
+  </si>
+  <si>
+    <t>CF25062755</t>
+  </si>
+  <si>
+    <t>ZENITHLAB</t>
+  </si>
+  <si>
+    <t>TDL-4A</t>
+  </si>
+  <si>
+    <t>RVU-LAB-002</t>
+  </si>
+  <si>
+    <t>CF25062756</t>
+  </si>
+  <si>
+    <t>ROTATOR</t>
+  </si>
+  <si>
+    <t>VRN-360</t>
+  </si>
+  <si>
+    <t>RVU-LAB-004</t>
+  </si>
+  <si>
+    <t>CF25062757</t>
+  </si>
+  <si>
+    <t>HEMATOCRIT CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>DM1424</t>
+  </si>
+  <si>
+    <t>LM5G000973</t>
+  </si>
+  <si>
+    <t>RVU-HCT-001</t>
+  </si>
+  <si>
+    <t>CF25062758</t>
+  </si>
+  <si>
+    <t>SUNHUI</t>
+  </si>
+  <si>
+    <t>LD2 DC 70</t>
+  </si>
+  <si>
+    <t>00048</t>
+  </si>
+  <si>
+    <t>RVU-TM-005</t>
+  </si>
+  <si>
+    <t>CH25062759</t>
+  </si>
+  <si>
+    <t>FRESHER</t>
+  </si>
+  <si>
+    <t>FS-270W</t>
+  </si>
+  <si>
+    <t>FS270W3111CKM5L028</t>
+  </si>
+  <si>
+    <t>RVU-TM-019</t>
+  </si>
+  <si>
+    <t>CH25062760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOKUSAN </t>
+  </si>
+  <si>
+    <t>H-19α</t>
+  </si>
+  <si>
+    <t>RVU-LAB-055</t>
+  </si>
+  <si>
+    <t>CF25062761</t>
+  </si>
+  <si>
+    <t>DRY BATH</t>
+  </si>
+  <si>
+    <t>LABNET</t>
+  </si>
+  <si>
+    <t>D1302-230V</t>
+  </si>
+  <si>
+    <t>BD19CAK0000542</t>
+  </si>
+  <si>
+    <t>RVU-LAB-033</t>
+  </si>
+  <si>
+    <t>DB25062762</t>
   </si>
 </sst>
 </file>
@@ -761,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF7F1A6-6D2C-409E-8BA6-AFEAC78F52D4}">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B9" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -806,410 +716,326 @@
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>35002900015</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="2">
+        <v>45813</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45825</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>9501282</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="2">
+        <v>45813</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45824</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="2">
+        <v>45812</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45825</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="32.4" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="2">
+        <v>45813</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45824</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="32.4" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>90712024</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
-        <v>45825</v>
+        <v>45813</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1906279</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2">
-        <v>45824</v>
+        <v>45813</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2">
-        <v>45826</v>
+        <v>45813</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2">
-        <v>45825</v>
+        <v>45812</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2">
-        <v>45826</v>
+        <v>45813</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="1">
+        <v>156630</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2">
-        <v>45825</v>
+        <v>45813</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2">
-        <v>45826</v>
+        <v>45813</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="2">
-        <v>45825</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45824</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="2">
-        <v>45824</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45826</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="2">
-        <v>45824</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1">

--- a/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล) ssk.xlsx
+++ b/ใบขอรับบริการงานสอบเทียบ (ตรวจสอบความถูกต้องใบรายงานผล) ssk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VerifyReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD93F92-DCBA-4617-89EC-E3D820A8F25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1306C9B-6944-4DCE-A7E2-274B0499123F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-16308" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ใบขอรับบริการสอบเทียบ" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
   <si>
     <t>ID No.</t>
   </si>
@@ -62,172 +62,359 @@
     <t>Calibration Date</t>
   </si>
   <si>
+    <t>CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>BOECO</t>
+  </si>
+  <si>
+    <t>C-28</t>
+  </si>
+  <si>
+    <t>0006185-02-00</t>
+  </si>
+  <si>
+    <t>6515-014-0001 012</t>
+  </si>
+  <si>
+    <t>CF25063254</t>
+  </si>
+  <si>
+    <t>HETTICH</t>
+  </si>
+  <si>
+    <t>EBA 280</t>
+  </si>
+  <si>
+    <t>0002663-05</t>
+  </si>
+  <si>
+    <t>6515-014-0003 018</t>
+  </si>
+  <si>
+    <t>CF25063255</t>
+  </si>
+  <si>
+    <t>CENTURION SCIENTIFIC</t>
+  </si>
+  <si>
+    <t>C2004</t>
+  </si>
+  <si>
+    <t>15919-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6515-014-0001 016
+</t>
+  </si>
+  <si>
+    <t>CF25063256</t>
+  </si>
+  <si>
+    <t>NUVE</t>
+  </si>
+  <si>
+    <t>NF 800</t>
+  </si>
+  <si>
+    <t>03-1772</t>
+  </si>
+  <si>
+    <t>6515-014-0001 014</t>
+  </si>
+  <si>
+    <t>CF25063257</t>
+  </si>
+  <si>
+    <t>HEMATOCRIT CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>SURANAREE MEDICAL</t>
+  </si>
+  <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>6515-014-0003 017</t>
+  </si>
+  <si>
+    <t>CF25063258</t>
+  </si>
+  <si>
     <t>REFRIGERATOR</t>
   </si>
   <si>
-    <t>CENTRIFUGE</t>
-  </si>
-  <si>
-    <t>WATER BATH</t>
-  </si>
-  <si>
-    <t>MEDICOOL</t>
-  </si>
-  <si>
-    <t>CLAY ADAM</t>
-  </si>
-  <si>
-    <t>SERO-FUGE</t>
-  </si>
-  <si>
-    <t>RVU-SE-001</t>
-  </si>
-  <si>
-    <t>CF25062752</t>
-  </si>
-  <si>
-    <t>GEMMY</t>
-  </si>
-  <si>
-    <t>YCW-01</t>
-  </si>
-  <si>
-    <t>RVU-TM-001</t>
-  </si>
-  <si>
-    <t>WB25062753</t>
-  </si>
-  <si>
-    <t>MDC-BB117</t>
-  </si>
-  <si>
-    <t>MDC-BB117-202003002</t>
-  </si>
-  <si>
-    <t>RVU-TM-006</t>
-  </si>
-  <si>
-    <t>CH25062754</t>
-  </si>
-  <si>
-    <t>SCILOGEX</t>
-  </si>
-  <si>
-    <t>DM0412</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>RVU-LAB-003</t>
-  </si>
-  <si>
-    <t>CF25062755</t>
-  </si>
-  <si>
-    <t>ZENITHLAB</t>
-  </si>
-  <si>
-    <t>TDL-4A</t>
-  </si>
-  <si>
-    <t>RVU-LAB-002</t>
-  </si>
-  <si>
-    <t>CF25062756</t>
-  </si>
-  <si>
-    <t>ROTATOR</t>
-  </si>
-  <si>
-    <t>VRN-360</t>
-  </si>
-  <si>
-    <t>RVU-LAB-004</t>
-  </si>
-  <si>
-    <t>CF25062757</t>
-  </si>
-  <si>
-    <t>HEMATOCRIT CENTRIFUGE</t>
-  </si>
-  <si>
-    <t>DM1424</t>
-  </si>
-  <si>
-    <t>LM5G000973</t>
-  </si>
-  <si>
-    <t>RVU-HCT-001</t>
-  </si>
-  <si>
-    <t>CF25062758</t>
-  </si>
-  <si>
-    <t>SUNHUI</t>
-  </si>
-  <si>
-    <t>LD2 DC 70</t>
-  </si>
-  <si>
-    <t>00048</t>
-  </si>
-  <si>
-    <t>RVU-TM-005</t>
-  </si>
-  <si>
-    <t>CH25062759</t>
-  </si>
-  <si>
-    <t>FRESHER</t>
-  </si>
-  <si>
-    <t>FS-270W</t>
-  </si>
-  <si>
-    <t>FS270W3111CKM5L028</t>
-  </si>
-  <si>
-    <t>RVU-TM-019</t>
-  </si>
-  <si>
-    <t>CH25062760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOKUSAN </t>
+    <t>SANYO</t>
+  </si>
+  <si>
+    <t>6515-038-0001 002</t>
+  </si>
+  <si>
+    <t>ยกเลิก</t>
+  </si>
+  <si>
+    <t>MBR-304GR</t>
+  </si>
+  <si>
+    <t>6515-038-2301 003</t>
+  </si>
+  <si>
+    <t>CH25063260</t>
+  </si>
+  <si>
+    <t>6515-038-2301 004</t>
+  </si>
+  <si>
+    <t>CH25063261</t>
+  </si>
+  <si>
+    <t>FREEZER</t>
+  </si>
+  <si>
+    <t>ELECTROLUX</t>
+  </si>
+  <si>
+    <t>MRT 791</t>
+  </si>
+  <si>
+    <t>6515-038-3091 002</t>
+  </si>
+  <si>
+    <t>CH25063262</t>
+  </si>
+  <si>
+    <t>PHCBI</t>
+  </si>
+  <si>
+    <t>MDF-U5412PB</t>
+  </si>
+  <si>
+    <t>6515-038-3091 019</t>
+  </si>
+  <si>
+    <t>CH25063263</t>
+  </si>
+  <si>
+    <t>ELECTRONIC BALANCE</t>
+  </si>
+  <si>
+    <t>SARTORIUS</t>
+  </si>
+  <si>
+    <t>BS 4202 S</t>
+  </si>
+  <si>
+    <t>6530-008-0006 021</t>
+  </si>
+  <si>
+    <t>EB25063264</t>
+  </si>
+  <si>
+    <t>INCUBATOR</t>
+  </si>
+  <si>
+    <t>BINDER</t>
+  </si>
+  <si>
+    <t>BD 400</t>
+  </si>
+  <si>
+    <t>07-13534</t>
+  </si>
+  <si>
+    <t>6515-096-0001 003</t>
+  </si>
+  <si>
+    <t>CH25063265</t>
+  </si>
+  <si>
+    <t>HOT AIR OVEN</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>ECOCELL 111</t>
+  </si>
+  <si>
+    <t>B 062544</t>
+  </si>
+  <si>
+    <t>6530-033-0001 003</t>
+  </si>
+  <si>
+    <t>CH25063266</t>
+  </si>
+  <si>
+    <t>PLATELET INCUBATOR</t>
+  </si>
+  <si>
+    <t>SANDEN INTERCOOL</t>
+  </si>
+  <si>
+    <t>SRC-680SRTM</t>
+  </si>
+  <si>
+    <t>SRC680203-0911-00003</t>
+  </si>
+  <si>
+    <t>INS-LAB-PLI-001</t>
+  </si>
+  <si>
+    <t>CH25063267</t>
+  </si>
+  <si>
+    <t>AUTOCLAVE</t>
+  </si>
+  <si>
+    <t>DAIHAN SCIENTIFIC</t>
+  </si>
+  <si>
+    <t>WAC-80</t>
+  </si>
+  <si>
+    <t>WAC80110909001V</t>
+  </si>
+  <si>
+    <t>6530-003-0001 012</t>
+  </si>
+  <si>
+    <t>AC25063268</t>
+  </si>
+  <si>
+    <t>ARCTIKO</t>
+  </si>
+  <si>
+    <t>BB1400</t>
+  </si>
+  <si>
+    <t>14.19.1090716</t>
+  </si>
+  <si>
+    <t>6515-038-2301 005</t>
+  </si>
+  <si>
+    <t>CH25063269</t>
+  </si>
+  <si>
+    <t>THERMO SCIENTIFIC</t>
+  </si>
+  <si>
+    <t>HERATHERM IGS180</t>
+  </si>
+  <si>
+    <t>6515-096-0001 004</t>
+  </si>
+  <si>
+    <t>CH25063270</t>
+  </si>
+  <si>
+    <t>HAIER</t>
+  </si>
+  <si>
+    <t>SC2100</t>
+  </si>
+  <si>
+    <t>6515-038-3091 016</t>
+  </si>
+  <si>
+    <t>CH25063271</t>
+  </si>
+  <si>
+    <t>ANC</t>
+  </si>
+  <si>
+    <t>LD6</t>
+  </si>
+  <si>
+    <t>6515-038-3091 013</t>
+  </si>
+  <si>
+    <t>CH25063272</t>
+  </si>
+  <si>
+    <t>SCB-2DB</t>
+  </si>
+  <si>
+    <t>00300575</t>
+  </si>
+  <si>
+    <t>6515-038-3091 009</t>
+  </si>
+  <si>
+    <t>CH25063273</t>
+  </si>
+  <si>
+    <t>DRY BATH</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WPFD3/6</t>
+  </si>
+  <si>
+    <t>6515-038-5002 002</t>
+  </si>
+  <si>
+    <t>DB25063274</t>
+  </si>
+  <si>
+    <t>KOKUSAN</t>
   </si>
   <si>
     <t>H-19α</t>
   </si>
   <si>
-    <t>RVU-LAB-055</t>
-  </si>
-  <si>
-    <t>CF25062761</t>
-  </si>
-  <si>
-    <t>DRY BATH</t>
-  </si>
-  <si>
-    <t>LABNET</t>
-  </si>
-  <si>
-    <t>D1302-230V</t>
-  </si>
-  <si>
-    <t>BD19CAK0000542</t>
-  </si>
-  <si>
-    <t>RVU-LAB-033</t>
-  </si>
-  <si>
-    <t>DB25062762</t>
+    <t>6515-014-0003 019</t>
+  </si>
+  <si>
+    <t>CF25063275</t>
+  </si>
+  <si>
+    <t>SF-C1492 W</t>
+  </si>
+  <si>
+    <t>INS-LAB-FRZ-002</t>
+  </si>
+  <si>
+    <t>SBC-335K(GYN)</t>
+  </si>
+  <si>
+    <t>INS-LAB-RFG-001</t>
+  </si>
+  <si>
+    <t>HCF-108C</t>
+  </si>
+  <si>
+    <t>B30JKBE6A00BYL3Q0059</t>
+  </si>
+  <si>
+    <t>6515-038-3091 015</t>
+  </si>
+  <si>
+    <t>TAKUAPA HOSPITAL</t>
+  </si>
+  <si>
+    <t>CH25063259</t>
+  </si>
+  <si>
+    <t>CH25063374</t>
+  </si>
+  <si>
+    <t>CH25063375</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -312,7 +499,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,6 +530,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -672,7 +868,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -682,7 +878,7 @@
     <col min="3" max="3" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.21875" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" style="14" customWidth="1"/>
     <col min="7" max="7" width="37.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.109375" style="7" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="3"/>
@@ -704,7 +900,7 @@
       <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -716,58 +912,62 @@
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="13">
+        <v>45832</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1">
-        <v>35002900015</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45813</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="32.4" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1">
-        <v>9501282</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="13">
+        <v>45832</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2">
-        <v>45813</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="32.4" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -778,17 +978,19 @@
       <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2">
-        <v>45812</v>
+      <c r="F4" s="13">
+        <v>45832</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="32.4" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -802,321 +1004,561 @@
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2">
-        <v>45813</v>
+      <c r="F5" s="13">
+        <v>45832</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="32.4" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1">
-        <v>90712024</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45813</v>
+        <v>33</v>
+      </c>
+      <c r="F6" s="13">
+        <v>45832</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1906279</v>
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45813</v>
+        <v>37</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="32.4" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="D8" s="1">
+        <v>60610552</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2">
-        <v>45813</v>
+      <c r="F8" s="13">
+        <v>45832</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="32.4" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1">
+        <v>60610250</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="13">
+        <v>45832</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45812</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="32.4" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7305166</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="F10" s="13">
+        <v>45832</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45813</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="32.4" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1">
+        <v>21050060</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45832</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1">
-        <v>156630</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45813</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="32.4" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1">
+        <v>19190271</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="F12" s="13">
+        <v>45833</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="H12" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="32.4" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="2">
-        <v>45813</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="6"/>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="13">
+        <v>45831</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="6"/>
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="13">
+        <v>45831</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="6"/>
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="13">
+        <v>45832</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="6"/>
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="13">
+        <v>45831</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="6"/>
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="13">
+        <v>45832</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="6"/>
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1">
+        <v>42384073</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="13">
+        <v>45831</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="6"/>
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="13">
+        <v>45831</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="6"/>
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="13">
+        <v>45832</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="6"/>
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="13">
+        <v>45831</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="6"/>
+      <c r="A22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="1">
+        <v>86674</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="13">
+        <v>45832</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="6"/>
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="1">
+        <v>156631</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="13">
+        <v>45832</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="6"/>
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="1">
+        <v>41000412</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="13">
+        <v>45831</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="6"/>
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="1">
+        <v>51000159</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="13">
+        <v>45833</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="32.4" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="6"/>
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="13">
+        <v>45833</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="32.4" customHeight="1">
       <c r="A27" s="1"/>
@@ -1124,7 +1566,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="2"/>
       <c r="H27" s="6"/>
     </row>
@@ -1134,7 +1576,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="2"/>
       <c r="H28" s="6"/>
     </row>
@@ -1144,7 +1586,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="2"/>
       <c r="H29" s="6"/>
     </row>
@@ -1154,7 +1596,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="2"/>
       <c r="H30" s="6"/>
     </row>
@@ -1164,7 +1606,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="2"/>
       <c r="H31" s="6"/>
     </row>
@@ -1174,7 +1616,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="2"/>
       <c r="H32" s="6"/>
     </row>
@@ -1184,7 +1626,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="2"/>
       <c r="H33" s="6"/>
     </row>
@@ -1194,7 +1636,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="13"/>
       <c r="G34" s="2"/>
       <c r="H34" s="6"/>
     </row>
@@ -1204,7 +1646,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="13"/>
       <c r="G35" s="2"/>
       <c r="H35" s="6"/>
     </row>
@@ -1214,7 +1656,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="2"/>
       <c r="H36" s="6"/>
     </row>
@@ -1224,7 +1666,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="13"/>
       <c r="G37" s="2"/>
       <c r="H37" s="6"/>
     </row>
@@ -1234,7 +1676,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="2"/>
       <c r="H38" s="6"/>
     </row>
@@ -1244,7 +1686,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="13"/>
       <c r="G39" s="2"/>
       <c r="H39" s="6"/>
     </row>
@@ -1254,7 +1696,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="13"/>
       <c r="G40" s="2"/>
       <c r="H40" s="6"/>
     </row>
@@ -1264,7 +1706,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="2"/>
       <c r="H41" s="6"/>
     </row>
@@ -1274,7 +1716,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="2"/>
+      <c r="F42" s="13"/>
       <c r="G42" s="2"/>
       <c r="H42" s="6"/>
     </row>
@@ -1284,7 +1726,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="13"/>
       <c r="G43" s="2"/>
       <c r="H43" s="6"/>
     </row>
@@ -1294,7 +1736,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="13"/>
       <c r="G44" s="2"/>
       <c r="H44" s="6"/>
     </row>
@@ -1304,7 +1746,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="13"/>
       <c r="G45" s="2"/>
       <c r="H45" s="6"/>
     </row>
@@ -1314,7 +1756,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="13"/>
       <c r="G46" s="2"/>
       <c r="H46" s="6"/>
     </row>
@@ -1324,7 +1766,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="2"/>
       <c r="H47" s="6"/>
     </row>
@@ -1334,7 +1776,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="2"/>
+      <c r="F48" s="13"/>
       <c r="G48" s="2"/>
       <c r="H48" s="6"/>
     </row>
@@ -1344,7 +1786,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="13"/>
       <c r="G49" s="2"/>
       <c r="H49" s="6"/>
     </row>
@@ -1354,7 +1796,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="13"/>
       <c r="G50" s="2"/>
       <c r="H50" s="6"/>
     </row>
@@ -1364,7 +1806,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="13"/>
       <c r="G51" s="2"/>
       <c r="H51" s="6"/>
     </row>
@@ -1374,7 +1816,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="2"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="2"/>
       <c r="H52" s="6"/>
     </row>
@@ -1384,7 +1826,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="2"/>
+      <c r="F53" s="13"/>
       <c r="G53" s="2"/>
       <c r="H53" s="6"/>
     </row>
@@ -1394,7 +1836,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="2"/>
+      <c r="F54" s="13"/>
       <c r="G54" s="2"/>
       <c r="H54" s="6"/>
     </row>
@@ -1404,7 +1846,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="2"/>
+      <c r="F55" s="13"/>
       <c r="G55" s="2"/>
       <c r="H55" s="6"/>
     </row>
@@ -1414,7 +1856,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="13"/>
       <c r="G56" s="2"/>
       <c r="H56" s="6"/>
     </row>
@@ -1424,7 +1866,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="13"/>
       <c r="G57" s="2"/>
       <c r="H57" s="6"/>
     </row>
@@ -1434,7 +1876,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="2"/>
+      <c r="F58" s="13"/>
       <c r="G58" s="2"/>
       <c r="H58" s="6"/>
     </row>
@@ -1444,7 +1886,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="2"/>
+      <c r="F59" s="13"/>
       <c r="G59" s="2"/>
       <c r="H59" s="6"/>
     </row>
@@ -1454,7 +1896,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="2"/>
+      <c r="F60" s="13"/>
       <c r="G60" s="2"/>
       <c r="H60" s="6"/>
     </row>
@@ -1464,7 +1906,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="2"/>
       <c r="H61" s="6"/>
     </row>
@@ -1474,7 +1916,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="2"/>
+      <c r="F62" s="13"/>
       <c r="G62" s="2"/>
       <c r="H62" s="6"/>
     </row>
@@ -1484,7 +1926,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="2"/>
+      <c r="F63" s="13"/>
       <c r="G63" s="2"/>
       <c r="H63" s="6"/>
     </row>
@@ -1494,7 +1936,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="2"/>
+      <c r="F64" s="13"/>
       <c r="G64" s="2"/>
       <c r="H64" s="6"/>
     </row>
@@ -1504,7 +1946,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="2"/>
+      <c r="F65" s="13"/>
       <c r="G65" s="2"/>
       <c r="H65" s="6"/>
     </row>
@@ -1514,7 +1956,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="13"/>
       <c r="G66" s="2"/>
       <c r="H66" s="6"/>
     </row>
@@ -1524,7 +1966,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="2"/>
+      <c r="F67" s="13"/>
       <c r="G67" s="2"/>
       <c r="H67" s="6"/>
     </row>
@@ -1534,7 +1976,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="2"/>
+      <c r="F68" s="13"/>
       <c r="G68" s="2"/>
       <c r="H68" s="6"/>
     </row>
@@ -1544,7 +1986,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="2"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="2"/>
       <c r="H69" s="6"/>
     </row>
@@ -1554,7 +1996,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="2"/>
+      <c r="F70" s="13"/>
       <c r="G70" s="2"/>
       <c r="H70" s="6"/>
     </row>
@@ -1564,7 +2006,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="2"/>
+      <c r="F71" s="13"/>
       <c r="G71" s="2"/>
       <c r="H71" s="6"/>
     </row>
@@ -1574,7 +2016,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="2"/>
+      <c r="F72" s="13"/>
       <c r="G72" s="2"/>
       <c r="H72" s="6"/>
     </row>
@@ -1584,7 +2026,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="2"/>
+      <c r="F73" s="13"/>
       <c r="G73" s="2"/>
       <c r="H73" s="6"/>
     </row>
@@ -1594,7 +2036,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="2"/>
+      <c r="F74" s="13"/>
       <c r="G74" s="2"/>
       <c r="H74" s="6"/>
     </row>
@@ -1604,7 +2046,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="2"/>
+      <c r="F75" s="13"/>
       <c r="G75" s="2"/>
       <c r="H75" s="6"/>
     </row>
@@ -1614,7 +2056,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="2"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="2"/>
       <c r="H76" s="6"/>
     </row>
@@ -1624,7 +2066,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="2"/>
+      <c r="F77" s="13"/>
       <c r="G77" s="2"/>
       <c r="H77" s="6"/>
     </row>
@@ -1634,7 +2076,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="2"/>
+      <c r="F78" s="13"/>
       <c r="G78" s="2"/>
       <c r="H78" s="6"/>
     </row>
@@ -1644,7 +2086,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="2"/>
+      <c r="F79" s="13"/>
       <c r="G79" s="2"/>
       <c r="H79" s="6"/>
     </row>
@@ -1654,7 +2096,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="2"/>
+      <c r="F80" s="13"/>
       <c r="G80" s="2"/>
       <c r="H80" s="6"/>
     </row>
@@ -1664,7 +2106,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="2"/>
+      <c r="F81" s="13"/>
       <c r="G81" s="2"/>
       <c r="H81" s="6"/>
     </row>
@@ -1674,7 +2116,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="2"/>
+      <c r="F82" s="13"/>
       <c r="G82" s="2"/>
       <c r="H82" s="6"/>
     </row>
@@ -1684,7 +2126,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="2"/>
+      <c r="F83" s="13"/>
       <c r="G83" s="2"/>
       <c r="H83" s="6"/>
     </row>
@@ -1694,7 +2136,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="2"/>
+      <c r="F84" s="13"/>
       <c r="G84" s="2"/>
       <c r="H84" s="6"/>
     </row>
@@ -1704,7 +2146,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="2"/>
+      <c r="F85" s="13"/>
       <c r="G85" s="2"/>
       <c r="H85" s="6"/>
     </row>
@@ -1714,7 +2156,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="2"/>
+      <c r="F86" s="13"/>
       <c r="G86" s="2"/>
       <c r="H86" s="6"/>
     </row>
@@ -1724,7 +2166,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="2"/>
+      <c r="F87" s="13"/>
       <c r="G87" s="2"/>
       <c r="H87" s="6"/>
     </row>
@@ -1734,7 +2176,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="2"/>
+      <c r="F88" s="13"/>
       <c r="G88" s="2"/>
       <c r="H88" s="6"/>
     </row>
@@ -1744,7 +2186,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="2"/>
+      <c r="F89" s="13"/>
       <c r="G89" s="2"/>
       <c r="H89" s="6"/>
     </row>
@@ -1754,7 +2196,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="2"/>
+      <c r="F90" s="13"/>
       <c r="G90" s="2"/>
       <c r="H90" s="6"/>
     </row>
@@ -1764,7 +2206,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="2"/>
+      <c r="F91" s="13"/>
       <c r="G91" s="2"/>
       <c r="H91" s="6"/>
     </row>
@@ -1774,7 +2216,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="2"/>
+      <c r="F92" s="13"/>
       <c r="G92" s="2"/>
       <c r="H92" s="6"/>
     </row>
@@ -1784,7 +2226,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="2"/>
+      <c r="F93" s="13"/>
       <c r="G93" s="2"/>
       <c r="H93" s="6"/>
     </row>
@@ -1794,7 +2236,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="2"/>
+      <c r="F94" s="13"/>
       <c r="G94" s="2"/>
       <c r="H94" s="6"/>
     </row>
@@ -1804,7 +2246,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="2"/>
+      <c r="F95" s="13"/>
       <c r="G95" s="2"/>
       <c r="H95" s="6"/>
     </row>
@@ -1814,7 +2256,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="2"/>
+      <c r="F96" s="13"/>
       <c r="G96" s="2"/>
       <c r="H96" s="6"/>
     </row>
@@ -1824,7 +2266,7 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="2"/>
+      <c r="F97" s="13"/>
       <c r="G97" s="2"/>
       <c r="H97" s="6"/>
     </row>
@@ -1834,7 +2276,7 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="2"/>
+      <c r="F98" s="13"/>
       <c r="G98" s="2"/>
       <c r="H98" s="6"/>
     </row>
@@ -1844,7 +2286,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="2"/>
+      <c r="F99" s="13"/>
       <c r="G99" s="2"/>
       <c r="H99" s="6"/>
     </row>
@@ -1854,7 +2296,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="2"/>
+      <c r="F100" s="13"/>
       <c r="G100" s="2"/>
       <c r="H100" s="6"/>
     </row>
@@ -1864,7 +2306,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="2"/>
+      <c r="F101" s="13"/>
       <c r="G101" s="2"/>
       <c r="H101" s="6"/>
     </row>
@@ -1874,7 +2316,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="2"/>
+      <c r="F102" s="13"/>
       <c r="G102" s="2"/>
       <c r="H102" s="6"/>
     </row>
@@ -1884,7 +2326,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="2"/>
+      <c r="F103" s="13"/>
       <c r="G103" s="2"/>
       <c r="H103" s="6"/>
     </row>
@@ -1894,7 +2336,7 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="2"/>
+      <c r="F104" s="13"/>
       <c r="G104" s="2"/>
       <c r="H104" s="6"/>
     </row>
@@ -1904,7 +2346,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="2"/>
+      <c r="F105" s="13"/>
       <c r="G105" s="2"/>
       <c r="H105" s="6"/>
     </row>
@@ -1914,7 +2356,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="2"/>
+      <c r="F106" s="13"/>
       <c r="G106" s="2"/>
       <c r="H106" s="6"/>
     </row>
@@ -1924,7 +2366,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="2"/>
+      <c r="F107" s="13"/>
       <c r="G107" s="2"/>
       <c r="H107" s="6"/>
     </row>
